--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
   <si>
     <t>runname</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>cd</t>
+  </si>
+  <si>
+    <t>cola</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -565,7 +568,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1379,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AJ7"/>
+  <dimension ref="A4:AK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,22 +1399,22 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="14.28515625" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
-    <col min="24" max="24" width="14" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" customWidth="1"/>
-    <col min="35" max="35" width="15.140625" customWidth="1"/>
-    <col min="36" max="36" width="16.5703125" customWidth="1"/>
+    <col min="11" max="16" width="14.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="14" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" customWidth="1"/>
+    <col min="36" max="36" width="15.140625" customWidth="1"/>
+    <col min="37" max="37" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1457,71 +1460,74 @@
       <c r="O4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Z4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AE4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AH4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AI4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AK4" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1564,65 +1570,68 @@
       <c r="O5">
         <v>0.02</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" t="b">
-        <v>1</v>
-      </c>
       <c r="R5" t="b">
         <v>1</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
         <v>101</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>62</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>12</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0.04</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>5</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>0</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>35</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>46</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>21</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AE5" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>45</v>
       </c>
       <c r="AF5" t="s">
         <v>45</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH5">
         <v>0.87622571862258425</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>0.92516191485799448</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1665,73 +1674,76 @@
       <c r="O6">
         <v>0.02</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" t="b">
-        <v>1</v>
-      </c>
       <c r="R6" t="b">
         <v>1</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
         <v>101</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>62</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>12</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0.04</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>5</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>0</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>35</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>46</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>21</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AE6" s="7">
         <v>0.12</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>45</v>
       </c>
       <c r="AF6" t="s">
         <v>45</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH6">
         <v>0.87622571862258425</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>0.92516191485799448</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AD7" s="7"/>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AE7" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:I7">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:Z7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA5:AA7">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="107">
   <si>
     <t>runname</t>
   </si>
@@ -417,6 +417,18 @@
   </si>
   <si>
     <t>cola</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>RS1_base</t>
+  </si>
+  <si>
+    <t>RS2_base</t>
+  </si>
+  <si>
+    <t>RS3_base</t>
   </si>
 </sst>
 </file>
@@ -1382,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AK7"/>
+  <dimension ref="A4:AJ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,28 +1405,28 @@
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="14.28515625" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
-    <col min="25" max="25" width="14" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" customWidth="1"/>
-    <col min="36" max="36" width="15.140625" customWidth="1"/>
-    <col min="37" max="37" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="24" max="24" width="14" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" customWidth="1"/>
+    <col min="35" max="35" width="15.140625" customWidth="1"/>
+    <col min="36" max="36" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1422,112 +1434,109 @@
         <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="J4" s="24" t="s">
         <v>99</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="L4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P4" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="P4" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="Q4" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="S4" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="T4" s="4" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="X4" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="X4" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="Y4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="Z4" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="AA4" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE4" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="AE4" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AF4" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI4" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="AI4" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="AJ4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK4" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1537,26 +1546,26 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>100</v>
       </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -1564,74 +1573,71 @@
       <c r="M5" t="b">
         <v>1</v>
       </c>
-      <c r="N5" t="b">
-        <v>1</v>
+      <c r="N5">
+        <v>0.02</v>
       </c>
       <c r="O5">
-        <v>0.02</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
         <v>4</v>
       </c>
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
       <c r="R5" t="b">
         <v>1</v>
       </c>
-      <c r="S5" t="b">
-        <v>1</v>
+      <c r="S5" t="s">
+        <v>101</v>
       </c>
       <c r="T5" t="s">
-        <v>101</v>
-      </c>
-      <c r="U5" t="s">
         <v>62</v>
       </c>
+      <c r="U5">
+        <v>12</v>
+      </c>
       <c r="V5">
-        <v>12</v>
+        <v>0.04</v>
       </c>
       <c r="W5">
-        <v>0.04</v>
+        <v>5</v>
       </c>
       <c r="X5">
-        <v>5</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>35</v>
       </c>
       <c r="Z5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB5" t="s">
         <v>21</v>
       </c>
+      <c r="AB5">
+        <v>7.2499999999999995E-2</v>
+      </c>
       <c r="AC5">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AD5">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AD5" s="7">
         <v>0.12</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>45</v>
       </c>
       <c r="AF5" t="s">
         <v>45</v>
       </c>
-      <c r="AG5" t="s">
-        <v>45</v>
+      <c r="AG5">
+        <v>0.87622571862258425</v>
       </c>
       <c r="AH5">
-        <v>0.87622571862258425</v>
-      </c>
-      <c r="AI5">
         <v>0.92516191485799448</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1641,26 +1647,26 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6">
+      <c r="I6">
         <v>10</v>
       </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
       <c r="K6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -1668,82 +1674,382 @@
       <c r="M6" t="b">
         <v>1</v>
       </c>
-      <c r="N6" t="b">
-        <v>1</v>
+      <c r="N6">
+        <v>0.02</v>
       </c>
       <c r="O6">
-        <v>0.02</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
         <v>4</v>
       </c>
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
       <c r="R6" t="b">
         <v>1</v>
       </c>
-      <c r="S6" t="b">
-        <v>1</v>
+      <c r="S6" t="s">
+        <v>101</v>
       </c>
       <c r="T6" t="s">
-        <v>101</v>
-      </c>
-      <c r="U6" t="s">
         <v>62</v>
       </c>
+      <c r="U6">
+        <v>12</v>
+      </c>
       <c r="V6">
-        <v>12</v>
+        <v>0.04</v>
       </c>
       <c r="W6">
-        <v>0.04</v>
+        <v>5</v>
       </c>
       <c r="X6">
-        <v>5</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>35</v>
       </c>
       <c r="Z6" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AA6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB6" t="s">
         <v>21</v>
       </c>
+      <c r="AB6">
+        <v>7.2499999999999995E-2</v>
+      </c>
       <c r="AC6">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AD6">
         <v>7.9699999999999993E-2</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AD6" s="7">
         <v>0.12</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>45</v>
       </c>
       <c r="AF6" t="s">
         <v>45</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AG6">
+        <v>0.87622571862258425</v>
+      </c>
+      <c r="AH6">
+        <v>0.92516191485799448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AD7" s="7"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0.02</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>101</v>
+      </c>
+      <c r="T8" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8">
+        <v>12</v>
+      </c>
+      <c r="V8">
+        <v>0.04</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB8">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AC8">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AE8" t="s">
         <v>45</v>
       </c>
-      <c r="AH6">
+      <c r="AF8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG8">
         <v>0.87622571862258425</v>
       </c>
-      <c r="AI6">
+      <c r="AH8">
         <v>0.92516191485799448</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AE7" s="7"/>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0.02</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" t="s">
+        <v>62</v>
+      </c>
+      <c r="U9">
+        <v>12</v>
+      </c>
+      <c r="V9">
+        <v>0.04</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB9">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AC9">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG9">
+        <v>0.87622571862258425</v>
+      </c>
+      <c r="AH9">
+        <v>0.92516191485799448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0.02</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10">
+        <v>12</v>
+      </c>
+      <c r="V10">
+        <v>0.04</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB10">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="AC10">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG10">
+        <v>0.87622571862258425</v>
+      </c>
+      <c r="AH10">
+        <v>0.92516191485799448</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:I7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:H10">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA5:AA7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:Z10">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1827,7 +2133,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="106">
   <si>
     <t>runname</t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>sumTiers</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <t>wf_growth</t>
@@ -555,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -610,6 +607,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1396,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AJ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -1446,31 +1446,31 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>16</v>
@@ -1485,7 +1485,7 @@
         <v>12</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U4" s="4" t="s">
         <v>10</v>
@@ -1497,10 +1497,10 @@
         <v>13</v>
       </c>
       <c r="X4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="Z4" s="5" t="s">
         <v>24</v>
@@ -1518,27 +1518,27 @@
         <v>9</v>
       </c>
       <c r="AE4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AH4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AH4" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="AI4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1547,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -1583,16 +1583,16 @@
         <v>4</v>
       </c>
       <c r="Q5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R5" s="26" t="b">
+        <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U5">
         <v>12</v>
@@ -1606,11 +1606,11 @@
       <c r="X5">
         <v>0</v>
       </c>
-      <c r="Y5" t="s">
-        <v>35</v>
+      <c r="Y5" t="b">
+        <v>1</v>
       </c>
       <c r="Z5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA5" t="s">
         <v>21</v>
@@ -1625,10 +1625,10 @@
         <v>0.12</v>
       </c>
       <c r="AE5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG5">
         <v>0.87622571862258425</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -1690,10 +1690,10 @@
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U6">
         <v>12</v>
@@ -1707,11 +1707,11 @@
       <c r="X6">
         <v>0</v>
       </c>
-      <c r="Y6" t="s">
-        <v>35</v>
+      <c r="Y6" t="b">
+        <v>0</v>
       </c>
       <c r="Z6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA6" t="s">
         <v>21</v>
@@ -1726,10 +1726,10 @@
         <v>0.12</v>
       </c>
       <c r="AE6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG6">
         <v>0.87622571862258425</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1752,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U8">
         <v>12</v>
@@ -1811,11 +1811,11 @@
       <c r="X8">
         <v>0</v>
       </c>
-      <c r="Y8" t="s">
-        <v>35</v>
+      <c r="Y8" t="b">
+        <v>0</v>
       </c>
       <c r="Z8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA8" t="s">
         <v>21</v>
@@ -1830,10 +1830,10 @@
         <v>0.12</v>
       </c>
       <c r="AE8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG8">
         <v>0.87622571862258425</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1853,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>1</v>
       </c>
       <c r="S9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U9">
         <v>12</v>
@@ -1912,11 +1912,11 @@
       <c r="X9">
         <v>0</v>
       </c>
-      <c r="Y9" t="s">
-        <v>35</v>
+      <c r="Y9" t="b">
+        <v>0</v>
       </c>
       <c r="Z9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA9" t="s">
         <v>21</v>
@@ -1931,10 +1931,10 @@
         <v>0.12</v>
       </c>
       <c r="AE9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG9">
         <v>0.87622571862258425</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -1954,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -1996,10 +1996,10 @@
         <v>1</v>
       </c>
       <c r="S10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U10">
         <v>12</v>
@@ -2013,11 +2013,11 @@
       <c r="X10">
         <v>0</v>
       </c>
-      <c r="Y10" t="s">
-        <v>35</v>
+      <c r="Y10" t="b">
+        <v>0</v>
       </c>
       <c r="Z10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA10" t="s">
         <v>21</v>
@@ -2032,10 +2032,10 @@
         <v>0.12</v>
       </c>
       <c r="AE10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG10">
         <v>0.87622571862258425</v>
@@ -2190,7 +2190,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2215,7 +2215,7 @@
         <v>0.05</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2284,7 +2284,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2312,24 +2312,24 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="17">
         <v>61.13</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="17">
         <v>52.74</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="17">
         <v>1.61</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="11">
         <v>40.200000000000003</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="11">
         <f>SUM(C4:C6)</f>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="17">
         <v>57.36</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="17">
         <f>C7*0.546</f>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="17">
         <v>37.35</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="11">
         <v>15.83</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="11">
         <v>2.83</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="11">
         <v>20</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="11">
         <v>7.49</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="17">
         <v>6.2</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="17">
         <v>0.17799999999999999</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="20">
         <v>0.23499999999999999</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="22">
         <f>3.09+2+0.687</f>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="11">
         <v>13.38</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="11">
         <v>12.68</v>
@@ -2614,25 +2614,25 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
         <v>88</v>
       </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -2657,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -2669,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4">
         <v>7.5</v>
@@ -2683,7 +2683,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -2700,7 +2700,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -2717,7 +2717,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -2729,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7">
         <v>7.5</v>
@@ -2740,13 +2740,13 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <v>12</v>
@@ -2754,10 +2754,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11">
         <v>7.5</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1397,7 +1397,7 @@
   <dimension ref="A4:AJ10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="s">
         <v>45</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
     <sheet name="GlobalParams" sheetId="3" r:id="rId2"/>
     <sheet name="returns" sheetId="2" r:id="rId3"/>
     <sheet name="Calibration_2016" sheetId="7" r:id="rId4"/>
-    <sheet name="Scenarios" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +27,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,62 +52,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-CAFR p97
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-CAFR p96
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
   <si>
     <t>runname</t>
   </si>
@@ -269,9 +218,6 @@
     <t>MVA</t>
   </si>
   <si>
-    <t>AV2016</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -305,9 +251,6 @@
     <t>$billion</t>
   </si>
   <si>
-    <t>FVFB for vested</t>
-  </si>
-  <si>
     <t>SC $b</t>
   </si>
   <si>
@@ -323,75 +266,12 @@
     <t>UAAL</t>
   </si>
   <si>
-    <t>payroll  (approp)</t>
-  </si>
-  <si>
-    <t>payroll  (calc)</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>EEC $b</t>
-  </si>
-  <si>
-    <t>B disb</t>
-  </si>
-  <si>
-    <t>B ben</t>
-  </si>
-  <si>
-    <t>B normal+early+lump sum</t>
-  </si>
-  <si>
-    <t>Scenario name</t>
-  </si>
-  <si>
-    <t>Assumption Achieved: Baseline</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Exp. Return</t>
-  </si>
-  <si>
-    <t>Policy</t>
-  </si>
-  <si>
-    <t>Current policy: Shared-risk; contraints on growth of ERC rate</t>
-  </si>
-  <si>
-    <t>15-years of low returns</t>
-  </si>
-  <si>
     <t>High volatility</t>
   </si>
   <si>
-    <t>5-7.5</t>
-  </si>
-  <si>
-    <t>policy.SR</t>
-  </si>
-  <si>
-    <t>policy.EL</t>
-  </si>
-  <si>
-    <t>ReturnScn</t>
-  </si>
-  <si>
-    <t>Assumption Achieved: Current policy</t>
-  </si>
-  <si>
-    <t>Assumption Achieved: Shared Risk only</t>
-  </si>
-  <si>
-    <t>Assumption Achieved: ERC limit only</t>
-  </si>
-  <si>
-    <t>Assumption Achieved: Shared Risk alt</t>
-  </si>
-  <si>
     <t>returnScn</t>
   </si>
   <si>
@@ -426,6 +306,21 @@
   </si>
   <si>
     <t>RS3_base</t>
+  </si>
+  <si>
+    <t>AV2015</t>
+  </si>
+  <si>
+    <t>PVFB for vested Terms</t>
+  </si>
+  <si>
+    <t>PVFNC</t>
+  </si>
+  <si>
+    <t>payroll  (reported)</t>
+  </si>
+  <si>
+    <t>payroll  (valueation)</t>
   </si>
 </sst>
 </file>
@@ -552,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -590,18 +485,6 @@
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -630,445 +513,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2DCB43-3DA5-4FD4-BCAB-FC10424603A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="571500" y="4991100"/>
-          <a:ext cx="6219825" cy="2495550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="x-none" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Duration: </a:t>
-          </a:r>
-          <a:endParaRPr lang="x-none" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="x-none" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>AAL DR:   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>18174710587</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="x-none" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="x-none" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>AAL +1%:  AAL: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>16192752562    (AL.act: 6941488396,      PVFB.act = 9984484403)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                   Change: 16192752562/18174710587 -1=-0.1091 </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                   Target: -10.9</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="x-none" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="x-none" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>AAL -1%    AAL: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>20564421674   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="x-none" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> (AL.act = </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>9573882561</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="x-none" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>,    PVFB.act = </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>15528002079</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="x-none" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="x-none" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Change:   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>20564421674/18174710587 -1=0.1315 </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>                  Target: 13.3</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="x-none" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="x-none" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Duration: (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>20564421674 - 16192752562)/(2*18174710587) = 0.1203 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="x-none" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="x-none" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Target: 12.12</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>37159</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>142706</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>250339</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CA8223-F717-495F-861A-A182779084D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDE71C44-0666-4C18-9710-A4306E99766B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1084,8 +547,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7848600" y="4476750"/>
-          <a:ext cx="7523809" cy="1352381"/>
+          <a:off x="6200775" y="152401"/>
+          <a:ext cx="4346089" cy="3848100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>156868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>56267</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>36993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510F051E-C42E-42A6-B701-B1EFEC831299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10610850" y="347368"/>
+          <a:ext cx="6447542" cy="8081150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>67166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266007</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>132829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C307BF-CD71-42E5-B9C7-5E8C2E092C13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="4048616"/>
+          <a:ext cx="4428432" cy="3332738"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1396,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AJ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,10 +982,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -1454,23 +1005,23 @@
       <c r="I4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="24" t="s">
-        <v>98</v>
+      <c r="J4" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>16</v>
@@ -1485,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U4" s="4" t="s">
         <v>10</v>
@@ -1530,15 +1081,15 @@
         <v>43</v>
       </c>
       <c r="AI4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1547,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -1559,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -1585,14 +1136,14 @@
       <c r="Q5" t="b">
         <v>0</v>
       </c>
-      <c r="R5" s="26" t="b">
+      <c r="R5" s="22" t="b">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U5">
         <v>12</v>
@@ -1639,7 +1190,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -1690,10 +1241,10 @@
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U6">
         <v>12</v>
@@ -1743,7 +1294,7 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1752,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1794,10 +1345,10 @@
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U8">
         <v>12</v>
@@ -1844,7 +1395,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1853,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -1895,10 +1446,10 @@
         <v>1</v>
       </c>
       <c r="S9" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U9">
         <v>12</v>
@@ -1945,7 +1496,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -1954,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -1996,10 +1547,10 @@
         <v>1</v>
       </c>
       <c r="S10" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U10">
         <v>12</v>
@@ -2185,12 +1736,12 @@
       <c r="E2" s="8">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="21">
         <f>B2 - C2^2/2</f>
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>96</v>
+      <c r="G2" s="19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2210,12 +1761,12 @@
         <f>B3-C3^2/2</f>
         <v>0.05</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="21">
         <f t="shared" ref="F3:F6" si="0">B3 - C3^2/2</f>
         <v>0.05</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2235,7 +1786,7 @@
         <f>B4-C4^2/2</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="21">
         <f t="shared" si="0"/>
         <v>6.5000000000000002E-2</v>
       </c>
@@ -2257,7 +1808,7 @@
         <f>B5-C5^2/2</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="21">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -2279,12 +1830,12 @@
         <f t="shared" ref="E6" si="1">B6-C6^2/2</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="21">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2295,296 +1846,311 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E21"/>
+  <dimension ref="B2:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" style="10" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11"/>
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="17">
-        <v>61.13</v>
-      </c>
-      <c r="D3" s="17">
-        <v>60</v>
-      </c>
-      <c r="E3" s="18">
-        <f>D3/C3</f>
-        <v>0.98151480451496809</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="17">
-        <v>52.74</v>
+        <v>38.69</v>
       </c>
       <c r="D4" s="17">
-        <f>D7-D6</f>
-        <v>52.900000000000006</v>
+        <v>33.19</v>
       </c>
       <c r="E4" s="18">
-        <f t="shared" ref="E4:E16" si="0">D4/C4</f>
-        <v>1.0030337504740237</v>
+        <f>D4/C4</f>
+        <v>0.85784440423882136</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="17">
+        <v>40.409999999999997</v>
+      </c>
+      <c r="D5" s="17">
+        <v>44.74</v>
+      </c>
+      <c r="E5" s="18">
+        <f t="shared" ref="E5:E22" si="0">D5/C5</f>
+        <v>1.1071516951249691</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="17">
+        <v>3.48</v>
+      </c>
+      <c r="D6" s="17">
+        <v>3.47</v>
+      </c>
+      <c r="E6" s="18">
+        <f>D6/C6</f>
+        <v>0.99712643678160928</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="17">
+        <v>11.06</v>
+      </c>
+      <c r="D7" s="17">
+        <v>8.3149999999999995</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" si="0"/>
+        <v>0.7518083182640144</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="11">
+        <f>C4-C7</f>
+        <v>27.629999999999995</v>
+      </c>
+      <c r="D9" s="11">
+        <f>D4-D7</f>
+        <v>24.875</v>
+      </c>
+      <c r="E9" s="12">
+        <f>D9/C9</f>
+        <v>0.90028954035468711</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="11">
+        <f>SUM(C9,C5,C6)</f>
+        <v>71.52</v>
+      </c>
+      <c r="D10" s="11">
+        <f>SUM(D9,D5,D6)</f>
+        <v>73.085000000000008</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
+        <v>1.0218819910514543</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="17">
+        <v>66.17</v>
+      </c>
+      <c r="D12" s="17">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="E12" s="18">
+        <f t="shared" si="0"/>
+        <v>1.1122865346833912</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="17">
+        <v>62.67</v>
+      </c>
+      <c r="D13" s="17">
+        <v>69.69</v>
+      </c>
+      <c r="E13" s="18">
+        <f t="shared" si="0"/>
+        <v>1.112015318334131</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="17">
+        <f>C10-C12</f>
+        <v>5.3499999999999943</v>
+      </c>
+      <c r="D14" s="17">
+        <v>5.95</v>
+      </c>
+      <c r="E14" s="18">
+        <f t="shared" si="0"/>
+        <v>1.1121495327102815</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="17">
-        <v>1.61</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="11">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="D6" s="11">
-        <v>39</v>
-      </c>
-      <c r="E6" s="12">
-        <f>D6/C6</f>
-        <v>0.9701492537313432</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="11">
-        <f>SUM(C4:C6)</f>
-        <v>94.550000000000011</v>
-      </c>
-      <c r="D7" s="11">
-        <v>91.9</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="C17" s="11">
+        <f>6+4.21</f>
+        <v>10.210000000000001</v>
+      </c>
+      <c r="D17" s="11">
+        <v>7.6</v>
+      </c>
+      <c r="E17" s="12">
+        <f>D17/C17</f>
+        <v>0.7443682664054847</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="E18" s="12">
         <f t="shared" si="0"/>
-        <v>0.97197250132205182</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="17">
-        <v>57.36</v>
-      </c>
-      <c r="D8" s="17">
-        <v>55.7</v>
-      </c>
-      <c r="E8" s="18">
+        <v>1.1375</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="11">
+        <v>5.77</v>
+      </c>
+      <c r="D19" s="11">
+        <v>6.9</v>
+      </c>
+      <c r="E19" s="12">
         <f t="shared" si="0"/>
-        <v>0.97105997210599726</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="17">
-        <f>C7*0.546</f>
-        <v>51.624300000000012</v>
-      </c>
-      <c r="D9" s="17">
-        <v>50.2</v>
-      </c>
-      <c r="E9" s="18">
+        <v>1.1958405545927211</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="11">
+        <v>6</v>
+      </c>
+      <c r="D20" s="11">
+        <v>6</v>
+      </c>
+      <c r="E20" s="12">
         <f t="shared" si="0"/>
-        <v>0.9724102796551235</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="17">
-        <v>37.35</v>
-      </c>
-      <c r="D10" s="17">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="D22" s="17">
+        <v>4.28</v>
+      </c>
+      <c r="E22" s="18">
         <f t="shared" si="0"/>
-        <v>0.9692101740294512</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="11">
-        <v>15.83</v>
-      </c>
-      <c r="D11" s="11">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="E11" s="12">
-        <f t="shared" si="0"/>
-        <v>1.0486418193303855</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="11">
-        <v>2.83</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2.75</v>
-      </c>
-      <c r="E12" s="12">
-        <f t="shared" si="0"/>
-        <v>0.9717314487632509</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="11">
-        <v>20</v>
-      </c>
-      <c r="D13" s="11">
-        <v>21.6</v>
-      </c>
-      <c r="E13" s="12">
-        <f t="shared" si="0"/>
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="11">
-        <v>7.49</v>
-      </c>
-      <c r="D14" s="11">
-        <v>7.56</v>
-      </c>
-      <c r="E14" s="12">
-        <f t="shared" si="0"/>
-        <v>1.0093457943925233</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="17">
-        <v>6.2</v>
-      </c>
-      <c r="D16" s="17">
-        <v>5.52</v>
-      </c>
-      <c r="E16" s="18">
-        <f t="shared" si="0"/>
-        <v>0.89032258064516123</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="17">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="20">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="22">
-        <f>3.09+2+0.687</f>
-        <v>5.7770000000000001</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="11">
-        <v>13.38</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12">
-        <f>D20/C20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="11">
-        <v>12.68</v>
-      </c>
-      <c r="D21" s="11">
-        <v>12.7</v>
-      </c>
-      <c r="E21" s="12">
-        <f>D21/C21</f>
-        <v>1.001577287066246</v>
+        <v>1.019047619047619</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="11">
+        <v>13.146000000000001</v>
+      </c>
+      <c r="D23" s="11">
+        <v>13.14</v>
+      </c>
+      <c r="E23" s="12">
+        <f>D23/C23</f>
+        <v>0.9995435874030123</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="11">
+        <v>13.897</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12">
+        <f>D24/C24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="10">
+        <f>C6/D6</f>
+        <v>1.0028818443804033</v>
       </c>
     </row>
   </sheetData>
@@ -2593,180 +2159,4 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="41.140625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="67.42578125" customWidth="1"/>
-    <col min="8" max="9" width="20.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4">
-        <v>7.5</v>
-      </c>
-      <c r="I4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7">
-        <v>7.5</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11">
-        <v>7.5</v>
-      </c>
-      <c r="I11">
-        <v>17.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
     <sheet name="GlobalParams" sheetId="3" r:id="rId2"/>
     <sheet name="returns" sheetId="2" r:id="rId3"/>
     <sheet name="Calibration_2016" sheetId="7" r:id="rId4"/>
+    <sheet name="Calibration actives" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
   <si>
     <t>runname</t>
   </si>
@@ -321,18 +322,43 @@
   </si>
   <si>
     <t>payroll  (valueation)</t>
+  </si>
+  <si>
+    <t>PV Future salary</t>
+  </si>
+  <si>
+    <t>PVFB actives</t>
+  </si>
+  <si>
+    <t>NC rate</t>
+  </si>
+  <si>
+    <t>AL  actives</t>
+  </si>
+  <si>
+    <t>bfactor adj</t>
+  </si>
+  <si>
+    <t>f.adj</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +393,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="9">
@@ -447,7 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -493,6 +525,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,16 +551,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>250339</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>174139</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -547,7 +583,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6200775" y="152401"/>
+          <a:off x="6734175" y="361951"/>
           <a:ext cx="4346089" cy="3848100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -559,16 +595,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>156868</xdr:rowOff>
+      <xdr:rowOff>175918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>56267</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>113417</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>36993</xdr:rowOff>
+      <xdr:rowOff>46518</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -591,7 +627,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10610850" y="347368"/>
+          <a:off x="11277600" y="366418"/>
           <a:ext cx="6447542" cy="8081150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -603,16 +639,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>67166</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114791</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266007</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>132829</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>227907</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>189979</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -635,7 +671,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6134100" y="4048616"/>
+          <a:off x="6705600" y="4486766"/>
           <a:ext cx="4428432" cy="3332738"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1846,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E26"/>
+  <dimension ref="B2:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" activeCellId="1" sqref="C4:C6 C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,262 +1931,285 @@
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C5" s="17">
-        <v>40.409999999999997</v>
+        <v>11.06</v>
       </c>
       <c r="D5" s="17">
-        <v>44.74</v>
+        <v>8.3149999999999995</v>
       </c>
       <c r="E5" s="18">
-        <f t="shared" ref="E5:E22" si="0">D5/C5</f>
-        <v>1.1071516951249691</v>
+        <f>D5/C5</f>
+        <v>0.7518083182640144</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C6" s="17">
-        <v>3.48</v>
+        <f>C4-C5</f>
+        <v>27.629999999999995</v>
       </c>
       <c r="D6" s="17">
-        <v>3.47</v>
+        <f>D4-D5</f>
+        <v>24.875</v>
       </c>
       <c r="E6" s="18">
         <f>D6/C6</f>
-        <v>0.99712643678160928</v>
+        <v>0.90028954035468711</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C7" s="17">
-        <v>11.06</v>
+        <v>40.409999999999997</v>
       </c>
       <c r="D7" s="17">
-        <v>8.3149999999999995</v>
+        <v>44.74</v>
       </c>
       <c r="E7" s="18">
-        <f t="shared" si="0"/>
-        <v>0.7518083182640144</v>
+        <f t="shared" ref="E7:E23" si="0">D7/C7</f>
+        <v>1.1071516951249691</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="17">
+        <v>3.48</v>
+      </c>
+      <c r="D8" s="17">
+        <v>3.47</v>
+      </c>
+      <c r="E8" s="18">
+        <f>D8/C8</f>
+        <v>0.99712643678160928</v>
+      </c>
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="11">
-        <f>C4-C7</f>
-        <v>27.629999999999995</v>
-      </c>
-      <c r="D9" s="11">
-        <f>D4-D7</f>
-        <v>24.875</v>
-      </c>
-      <c r="E9" s="12">
-        <f>D9/C9</f>
-        <v>0.90028954035468711</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="11">
-        <f>SUM(C9,C5,C6)</f>
+      <c r="C11" s="17">
+        <f>SUM(C6,C7,C8)</f>
         <v>71.52</v>
       </c>
-      <c r="D10" s="11">
-        <f>SUM(D9,D5,D6)</f>
+      <c r="D11" s="17">
+        <f>SUM(D6,D7,D8)</f>
         <v>73.085000000000008</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="18">
         <f t="shared" si="0"/>
         <v>1.0218819910514543</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-    </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C13" s="17">
         <v>66.17</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D13" s="17">
         <v>73.599999999999994</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E13" s="18">
         <f t="shared" si="0"/>
         <v>1.1122865346833912</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
+    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C14" s="17">
         <v>62.67</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D14" s="17">
         <v>69.69</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E14" s="18">
         <f t="shared" si="0"/>
         <v>1.112015318334131</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
+    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="17">
-        <f>C10-C12</f>
+      <c r="C15" s="17">
+        <f>C11-C13</f>
         <v>5.3499999999999943</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D15" s="17">
         <v>5.95</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E15" s="18">
         <f t="shared" si="0"/>
         <v>1.1121495327102815</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
+    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C18" s="11">
         <f>6+4.21</f>
         <v>10.210000000000001</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="11">
         <v>7.6</v>
       </c>
-      <c r="E17" s="12">
-        <f>D17/C17</f>
+      <c r="E18" s="12">
+        <f>D18/C18</f>
         <v>0.7443682664054847</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
+    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C19" s="11">
         <v>0.8</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>0.91</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E19" s="12">
         <f t="shared" si="0"/>
         <v>1.1375</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C20" s="11">
         <v>5.77</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <v>6.9</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E20" s="12">
         <f t="shared" si="0"/>
         <v>1.1958405545927211</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C21" s="11">
         <v>6</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <v>6</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-    </row>
     <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C23" s="17">
         <v>4.2</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D23" s="17">
         <v>4.28</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E23" s="18">
         <f t="shared" si="0"/>
         <v>1.019047619047619</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="11">
-        <v>13.146000000000001</v>
-      </c>
-      <c r="D23" s="11">
-        <v>13.14</v>
-      </c>
-      <c r="E23" s="12">
-        <f>D23/C23</f>
-        <v>0.9995435874030123</v>
-      </c>
-    </row>
     <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="11">
-        <v>13.897</v>
-      </c>
-      <c r="D24" s="11"/>
+        <v>13.146000000000001</v>
+      </c>
+      <c r="D24" s="11">
+        <v>13.14</v>
+      </c>
       <c r="E24" s="12">
         <f>D24/C24</f>
+        <v>0.9995435874030123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="11">
+        <v>13.897</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12">
+        <f>D25/C25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="D26" s="10">
-        <f>C6/D6</f>
-        <v>1.0028818443804033</v>
+        <v>108.3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2159,4 +2218,242 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I1">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.2</v>
+      </c>
+      <c r="H3">
+        <v>0.03</v>
+      </c>
+      <c r="I3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.2</v>
+      </c>
+      <c r="H4">
+        <v>0.125</v>
+      </c>
+      <c r="I4">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="17">
+        <v>38.69</v>
+      </c>
+      <c r="D6">
+        <v>36.5</v>
+      </c>
+      <c r="E6" s="23">
+        <v>37.18</v>
+      </c>
+      <c r="F6">
+        <v>38.17</v>
+      </c>
+      <c r="G6">
+        <v>39.65</v>
+      </c>
+      <c r="H6" s="23">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="17">
+        <v>11.06</v>
+      </c>
+      <c r="D7">
+        <v>9.14</v>
+      </c>
+      <c r="E7">
+        <v>9.31</v>
+      </c>
+      <c r="F7">
+        <v>9.56</v>
+      </c>
+      <c r="G7">
+        <v>9.85</v>
+      </c>
+      <c r="H7">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="17">
+        <v>27.629999999999995</v>
+      </c>
+      <c r="D8">
+        <f>D6-D7</f>
+        <v>27.36</v>
+      </c>
+      <c r="E8">
+        <f>E6-E7</f>
+        <v>27.869999999999997</v>
+      </c>
+      <c r="F8">
+        <f>F6-F7</f>
+        <v>28.61</v>
+      </c>
+      <c r="G8">
+        <f>G6-G7</f>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="H8">
+        <f>H6-H7</f>
+        <v>29.41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="11">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="D9">
+        <v>8.35</v>
+      </c>
+      <c r="E9">
+        <v>8.51</v>
+      </c>
+      <c r="F9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G9">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="H9">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="24">
+        <f>F6/$C6</f>
+        <v>0.98655983458257956</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="24">
+        <f t="shared" ref="F12:F14" si="0">F7/$C7</f>
+        <v>0.86437613019891502</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="24">
+        <f t="shared" si="0"/>
+        <v>1.0354686934491497</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="24">
+        <f t="shared" si="0"/>
+        <v>0.85210577864838377</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="returns" sheetId="2" r:id="rId3"/>
     <sheet name="Calibration_2016" sheetId="7" r:id="rId4"/>
     <sheet name="Calibration actives" sheetId="8" r:id="rId5"/>
+    <sheet name="Calibration Retirees" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
   <si>
     <t>runname</t>
   </si>
@@ -204,9 +205,6 @@
     <t>PVFB for actives</t>
   </si>
   <si>
-    <t>PVFB for retirees/bens</t>
-  </si>
-  <si>
     <t>AL total</t>
   </si>
   <si>
@@ -346,6 +344,45 @@
   </si>
   <si>
     <t>f2</t>
+  </si>
+  <si>
+    <t>salgrowth + 0.5%</t>
+  </si>
+  <si>
+    <t>s.growth + 0.5%</t>
+  </si>
+  <si>
+    <t>PVFS</t>
+  </si>
+  <si>
+    <t>s.growth + 0.75%</t>
+  </si>
+  <si>
+    <t>AL retirees</t>
+  </si>
+  <si>
+    <t>mortality</t>
+  </si>
+  <si>
+    <t>post +5%</t>
+  </si>
+  <si>
+    <t>95% init benefit</t>
+  </si>
+  <si>
+    <t>96% init benefit; post + 2.5%</t>
+  </si>
+  <si>
+    <t>No calibration</t>
+  </si>
+  <si>
+    <t>Calibrated</t>
+  </si>
+  <si>
+    <t>benefit factor * 1.125; sal.growth + 0.75%; 96% init benefit; post/sur mortality * 1.025</t>
+  </si>
+  <si>
+    <t>PVFB for retirees/bens/disb</t>
   </si>
 </sst>
 </file>
@@ -451,7 +488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -474,12 +511,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -529,6 +575,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,16 +603,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>174139</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1431439</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -583,7 +635,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6734175" y="361951"/>
+          <a:off x="1666875" y="7086601"/>
           <a:ext cx="4346089" cy="3848100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -603,8 +655,8 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>113417</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>46518</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>65568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -639,16 +691,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114791</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>227907</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>189979</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1351857</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>151879</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -671,7 +723,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6705600" y="4486766"/>
+          <a:off x="1504950" y="11125691"/>
           <a:ext cx="4428432" cy="3332738"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -983,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AJ10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -1042,22 +1094,22 @@
         <v>37</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>16</v>
@@ -1072,7 +1124,7 @@
         <v>12</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U4" s="4" t="s">
         <v>10</v>
@@ -1117,15 +1169,15 @@
         <v>43</v>
       </c>
       <c r="AI4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1134,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -1176,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U5">
         <v>12</v>
@@ -1226,7 +1278,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -1277,10 +1329,10 @@
         <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U6">
         <v>12</v>
@@ -1330,7 +1382,7 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1339,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1381,10 +1433,10 @@
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U8">
         <v>12</v>
@@ -1431,7 +1483,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1440,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -1482,10 +1534,10 @@
         <v>1</v>
       </c>
       <c r="S9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U9">
         <v>12</v>
@@ -1532,7 +1584,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -1541,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -1583,10 +1635,10 @@
         <v>1</v>
       </c>
       <c r="S10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U10">
         <v>12</v>
@@ -1650,7 +1702,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1772,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,7 +1829,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1802,7 +1854,7 @@
         <v>0.05</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1871,7 +1923,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1882,337 +1934,482 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E37"/>
+  <dimension ref="B2:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" activeCellId="1" sqref="C4:C6 C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="10" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="10" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="F4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C5" s="17">
         <v>38.69</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D5" s="17">
         <v>33.19</v>
-      </c>
-      <c r="E4" s="18">
-        <f>D4/C4</f>
-        <v>0.85784440423882136</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="17">
-        <v>11.06</v>
-      </c>
-      <c r="D5" s="17">
-        <v>8.3149999999999995</v>
       </c>
       <c r="E5" s="18">
         <f>D5/C5</f>
-        <v>0.7518083182640144</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.85784440423882136</v>
+      </c>
+      <c r="F5" s="17">
+        <v>40</v>
+      </c>
+      <c r="G5" s="18">
+        <f>F5/C5</f>
+        <v>1.0338588782631171</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C6" s="17">
-        <f>C4-C5</f>
-        <v>27.629999999999995</v>
+        <v>11.06</v>
       </c>
       <c r="D6" s="17">
-        <f>D4-D5</f>
-        <v>24.875</v>
+        <v>8.3149999999999995</v>
       </c>
       <c r="E6" s="18">
         <f>D6/C6</f>
+        <v>0.7518083182640144</v>
+      </c>
+      <c r="F6" s="17">
+        <v>10.95</v>
+      </c>
+      <c r="G6" s="18">
+        <f t="shared" ref="G6:G9" si="0">F6/C6</f>
+        <v>0.99005424954792032</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="17">
+        <f>C5-C6</f>
+        <v>27.629999999999995</v>
+      </c>
+      <c r="D7" s="17">
+        <f>D5-D6</f>
+        <v>24.875</v>
+      </c>
+      <c r="E7" s="18">
+        <f>D7/C7</f>
         <v>0.90028954035468711</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="F7" s="17">
+        <v>29.05</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" si="0"/>
+        <v>1.0513934129569311</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="17">
+        <v>40.409999999999997</v>
+      </c>
+      <c r="D8" s="17">
+        <v>46.4</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" ref="E8:E24" si="1">D8/C8</f>
+        <v>1.1482306359811929</v>
+      </c>
+      <c r="F8" s="17">
+        <v>42.8</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="0"/>
+        <v>1.0591437762929967</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="17">
+        <v>3.48</v>
+      </c>
+      <c r="D9" s="17">
+        <v>3.47</v>
+      </c>
+      <c r="E9" s="18">
+        <f>D9/C9</f>
+        <v>0.99712643678160928</v>
+      </c>
+      <c r="F9" s="17">
+        <v>3.47</v>
+      </c>
+      <c r="G9" s="18">
+        <f t="shared" si="0"/>
+        <v>0.99712643678160928</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="17">
-        <v>40.409999999999997</v>
-      </c>
-      <c r="D7" s="17">
-        <v>44.74</v>
-      </c>
-      <c r="E7" s="18">
-        <f t="shared" ref="E7:E23" si="0">D7/C7</f>
-        <v>1.1071516951249691</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="17">
-        <v>3.48</v>
-      </c>
-      <c r="D8" s="17">
-        <v>3.47</v>
-      </c>
-      <c r="E8" s="18">
-        <f>D8/C8</f>
-        <v>0.99712643678160928</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="17">
-        <f>SUM(C6,C7,C8)</f>
+      <c r="C12" s="17">
+        <f>SUM(C7,C8,C9)</f>
         <v>71.52</v>
       </c>
-      <c r="D11" s="17">
-        <f>SUM(D6,D7,D8)</f>
-        <v>73.085000000000008</v>
-      </c>
-      <c r="E11" s="18">
-        <f t="shared" si="0"/>
-        <v>1.0218819910514543</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
+      <c r="D12" s="17">
+        <f>SUM(D7,D8,D9)</f>
+        <v>74.745000000000005</v>
+      </c>
+      <c r="E12" s="18">
+        <f t="shared" si="1"/>
+        <v>1.0450922818791948</v>
+      </c>
+      <c r="F12" s="17">
+        <v>76.97</v>
+      </c>
+      <c r="G12" s="18">
+        <f t="shared" ref="G12" si="2">F12/C12</f>
+        <v>1.076202460850112</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="17">
+        <v>66.17</v>
+      </c>
+      <c r="D14" s="17">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="E14" s="18">
+        <f t="shared" si="1"/>
+        <v>1.1122865346833912</v>
+      </c>
+      <c r="F14" s="17">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="G14" s="18">
+        <f t="shared" ref="G14:G16" si="3">F14/C14</f>
+        <v>1.1122865346833912</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="17">
-        <v>66.17</v>
-      </c>
-      <c r="D13" s="17">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="E13" s="18">
-        <f t="shared" si="0"/>
-        <v>1.1122865346833912</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="17">
+      <c r="C15" s="17">
         <v>62.67</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D15" s="17">
         <v>69.69</v>
       </c>
-      <c r="E14" s="18">
-        <f t="shared" si="0"/>
+      <c r="E15" s="18">
+        <f t="shared" si="1"/>
         <v>1.112015318334131</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="17">
-        <f>C11-C13</f>
+      <c r="F15" s="17">
+        <v>69.69</v>
+      </c>
+      <c r="G15" s="18">
+        <f t="shared" si="3"/>
+        <v>1.112015318334131</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="17">
+        <f>C12-C14</f>
         <v>5.3499999999999943</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D16" s="17">
         <v>5.95</v>
       </c>
-      <c r="E15" s="18">
-        <f t="shared" si="0"/>
+      <c r="E16" s="18">
+        <f t="shared" si="1"/>
         <v>1.1121495327102815</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="F16" s="17">
+        <v>5.95</v>
+      </c>
+      <c r="G16" s="18">
+        <f t="shared" si="3"/>
+        <v>1.1121495327102815</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="11">
         <f>6+4.21</f>
         <v>10.210000000000001</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>7.6</v>
       </c>
-      <c r="E18" s="12">
-        <f>D18/C18</f>
+      <c r="E19" s="12">
+        <f>D19/C19</f>
         <v>0.7443682664054847</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="F19" s="11">
+        <v>7.6</v>
+      </c>
+      <c r="G19" s="18">
+        <f t="shared" ref="G19:G22" si="4">F19/C19</f>
+        <v>0.7443682664054847</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="11">
         <v>0.8</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <v>0.91</v>
       </c>
-      <c r="E19" s="12">
-        <f t="shared" si="0"/>
+      <c r="E20" s="12">
+        <f t="shared" si="1"/>
         <v>1.1375</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="F20" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="G20" s="18">
+        <f t="shared" si="4"/>
+        <v>1.1375</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="11">
         <v>5.77</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <v>6.9</v>
       </c>
-      <c r="E20" s="12">
-        <f t="shared" si="0"/>
+      <c r="E21" s="12">
+        <f t="shared" si="1"/>
         <v>1.1958405545927211</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="F21" s="11">
+        <v>6.9</v>
+      </c>
+      <c r="G21" s="18">
+        <f t="shared" si="4"/>
+        <v>1.1958405545927211</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="11">
         <v>6</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>6</v>
       </c>
-      <c r="E21" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="17">
+      <c r="E22" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="11">
+        <v>6</v>
+      </c>
+      <c r="G22" s="18">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="13"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="17">
         <v>4.2</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D24" s="17">
         <v>4.28</v>
       </c>
-      <c r="E23" s="18">
-        <f t="shared" si="0"/>
+      <c r="E24" s="18">
+        <f t="shared" si="1"/>
         <v>1.019047619047619</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="11">
+      <c r="F24" s="17">
+        <v>4.28</v>
+      </c>
+      <c r="G24" s="18">
+        <f t="shared" ref="G24:G26" si="5">F24/C24</f>
+        <v>1.019047619047619</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="11">
         <v>13.146000000000001</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <v>13.14</v>
       </c>
-      <c r="E24" s="12">
-        <f>D24/C24</f>
-        <v>0.9995435874030123</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="11">
-        <v>13.897</v>
-      </c>
-      <c r="D25" s="11"/>
       <c r="E25" s="12">
         <f>D25/C25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="10">
+        <v>0.9995435874030123</v>
+      </c>
+      <c r="F25" s="11">
+        <v>13.14</v>
+      </c>
+      <c r="G25" s="18">
+        <f t="shared" si="5"/>
+        <v>0.9995435874030123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="11">
+        <v>13.897</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12">
+        <f>D26/C26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="10">
         <v>108.3</v>
       </c>
+      <c r="F27" s="10">
+        <v>108.3</v>
+      </c>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
-        <v>90</v>
-      </c>
+      <c r="B34"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2222,23 +2419,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I14"/>
+  <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1">
         <v>1.1000000000000001</v>
@@ -2255,36 +2457,60 @@
       <c r="H1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="I1">
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L1">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>93</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>94</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2301,13 +2527,10 @@
       <c r="H3">
         <v>0.03</v>
       </c>
-      <c r="I3">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2324,14 +2547,11 @@
       <c r="H4">
         <v>0.125</v>
       </c>
-      <c r="I4">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="17">
         <v>38.69</v>
@@ -2351,10 +2571,25 @@
       <c r="H6" s="23">
         <v>38.5</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="K6">
+        <v>38.229999999999997</v>
+      </c>
+      <c r="L6">
+        <v>40</v>
+      </c>
+      <c r="M6">
+        <v>35.64</v>
+      </c>
+      <c r="N6">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="17">
         <v>11.06</v>
@@ -2374,10 +2609,25 @@
       <c r="H7">
         <v>9.09</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>9.24</v>
+      </c>
+      <c r="K7">
+        <v>10.17</v>
+      </c>
+      <c r="L7">
+        <v>10.6</v>
+      </c>
+      <c r="M7">
+        <v>9.76</v>
+      </c>
+      <c r="N7">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="17">
         <v>27.629999999999995</v>
@@ -2402,10 +2652,25 @@
         <f>H6-H7</f>
         <v>29.41</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>25.5</v>
+      </c>
+      <c r="K8">
+        <v>28.1</v>
+      </c>
+      <c r="L8">
+        <v>29.38</v>
+      </c>
+      <c r="M8">
+        <v>25.88</v>
+      </c>
+      <c r="N8">
+        <v>29.12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="11">
         <v>10.210000000000001</v>
@@ -2425,32 +2690,661 @@
       <c r="H9">
         <v>8.43</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="24">
+      <c r="J9">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="K9">
+        <v>8.93</v>
+      </c>
+      <c r="L9">
+        <v>9.33</v>
+      </c>
+      <c r="M9">
+        <v>8.39</v>
+      </c>
+      <c r="N9">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="25">
+        <v>10.83</v>
+      </c>
+      <c r="J10">
+        <v>11.85</v>
+      </c>
+      <c r="K10">
+        <v>11.85</v>
+      </c>
+      <c r="L10">
+        <v>11.85</v>
+      </c>
+      <c r="M10">
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F12" s="24">
         <f>F6/$C6</f>
         <v>0.98655983458257956</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="24">
-        <f t="shared" ref="F12:F14" si="0">F7/$C7</f>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24">
+        <f>J6/$C6</f>
+        <v>0.89945722408891182</v>
+      </c>
+      <c r="K12" s="24">
+        <f>K6/$C6</f>
+        <v>0.98811062289997409</v>
+      </c>
+      <c r="L12" s="24">
+        <f>L6/$C6</f>
+        <v>1.0338588782631171</v>
+      </c>
+      <c r="M12" s="24">
+        <f>M6/$C6</f>
+        <v>0.92116826053243739</v>
+      </c>
+      <c r="N12" s="24">
+        <f>N6/$C6</f>
+        <v>1.0364435254587749</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F13" s="24">
+        <f>F7/$C7</f>
         <v>0.86437613019891502</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="24">
-        <f t="shared" si="0"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24">
+        <f>J7/$C7</f>
+        <v>0.83544303797468356</v>
+      </c>
+      <c r="K13" s="24">
+        <f>K7/$C7</f>
+        <v>0.91952983725135617</v>
+      </c>
+      <c r="L13" s="24">
+        <f>L7/$C7</f>
+        <v>0.95840867992766721</v>
+      </c>
+      <c r="M13" s="24">
+        <f>M7/$C7</f>
+        <v>0.88245931283905965</v>
+      </c>
+      <c r="N13" s="24">
+        <f>N7/$C7</f>
+        <v>0.99186256781193494</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F14" s="24">
+        <f>F8/$C8</f>
         <v>1.0354686934491497</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="24">
-        <f t="shared" si="0"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24">
+        <f>J8/$C8</f>
+        <v>0.92290988056460388</v>
+      </c>
+      <c r="K14" s="24">
+        <f>K8/$C8</f>
+        <v>1.0170104958378576</v>
+      </c>
+      <c r="L14" s="24">
+        <f>L8/$C8</f>
+        <v>1.0633369525877669</v>
+      </c>
+      <c r="M14" s="24">
+        <f>M8/$C8</f>
+        <v>0.93666304741223316</v>
+      </c>
+      <c r="N14" s="24">
+        <f>N8/$C8</f>
+        <v>1.0539268910604418</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F15" s="24">
+        <f>F9/$C9</f>
         <v>0.85210577864838377</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24">
+        <f>J9/$C9</f>
+        <v>0.79529872673849156</v>
+      </c>
+      <c r="K15" s="24">
+        <f>K9/$C9</f>
+        <v>0.87463271302644452</v>
+      </c>
+      <c r="L15" s="24">
+        <f>L9/$C9</f>
+        <v>0.91380999020568066</v>
+      </c>
+      <c r="M15" s="24">
+        <f>M9/$C9</f>
+        <v>0.82174338883447595</v>
+      </c>
+      <c r="N15" s="24">
+        <f>N9/$C9</f>
+        <v>0.92458374142997046</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J16" s="24">
+        <f>J10/$C10</f>
+        <v>1.0941828254847645</v>
+      </c>
+      <c r="K16" s="24">
+        <f>K10/$C10</f>
+        <v>1.0941828254847645</v>
+      </c>
+      <c r="L16" s="24">
+        <f>L10/$C10</f>
+        <v>1.0941828254847645</v>
+      </c>
+      <c r="M16" s="24">
+        <f>M10/$C10</f>
+        <v>1.10803324099723</v>
+      </c>
+      <c r="N16" s="24">
+        <f>N10/$C10</f>
+        <v>1.10803324099723</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1.125</v>
+      </c>
+      <c r="H1">
+        <v>1.125</v>
+      </c>
+      <c r="I1">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="17">
+        <v>38.69</v>
+      </c>
+      <c r="C7">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D7">
+        <v>38.229999999999997</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>35.64</v>
+      </c>
+      <c r="G7">
+        <v>39.93</v>
+      </c>
+      <c r="H7">
+        <v>40.1</v>
+      </c>
+      <c r="I7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="17">
+        <v>11.06</v>
+      </c>
+      <c r="C8">
+        <v>9.24</v>
+      </c>
+      <c r="D8">
+        <v>10.17</v>
+      </c>
+      <c r="E8">
+        <v>10.6</v>
+      </c>
+      <c r="F8">
+        <v>9.76</v>
+      </c>
+      <c r="G8">
+        <v>10.94</v>
+      </c>
+      <c r="H8">
+        <v>10.97</v>
+      </c>
+      <c r="I8">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="17">
+        <v>27.629999999999995</v>
+      </c>
+      <c r="C9">
+        <v>25.5</v>
+      </c>
+      <c r="D9">
+        <v>28.1</v>
+      </c>
+      <c r="E9">
+        <v>29.38</v>
+      </c>
+      <c r="F9">
+        <v>25.88</v>
+      </c>
+      <c r="G9">
+        <v>28.99</v>
+      </c>
+      <c r="H9">
+        <v>29.12</v>
+      </c>
+      <c r="I9">
+        <v>29.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="11">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="C10">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="D10">
+        <v>8.93</v>
+      </c>
+      <c r="E10">
+        <v>9.33</v>
+      </c>
+      <c r="F10">
+        <v>8.39</v>
+      </c>
+      <c r="G10">
+        <v>9.41</v>
+      </c>
+      <c r="H10">
+        <v>9.44</v>
+      </c>
+      <c r="I10">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="25">
+        <v>10.83</v>
+      </c>
+      <c r="C11">
+        <v>11.85</v>
+      </c>
+      <c r="D11">
+        <v>11.85</v>
+      </c>
+      <c r="E11">
+        <v>11.85</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="25">
+        <v>40.409999999999997</v>
+      </c>
+      <c r="G12">
+        <v>44.42</v>
+      </c>
+      <c r="H12">
+        <v>42.5</v>
+      </c>
+      <c r="I12">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="25">
+        <v>4.2</v>
+      </c>
+      <c r="H13">
+        <v>3.98</v>
+      </c>
+      <c r="I13">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="24">
+        <f>C7/$B7</f>
+        <v>0.89945722408891182</v>
+      </c>
+      <c r="D15" s="24">
+        <f>D7/$B7</f>
+        <v>0.98811062289997409</v>
+      </c>
+      <c r="E15" s="24">
+        <f>E7/$B7</f>
+        <v>1.0338588782631171</v>
+      </c>
+      <c r="F15" s="24">
+        <f>F7/$B7</f>
+        <v>0.92116826053243739</v>
+      </c>
+      <c r="G15" s="24">
+        <f>G7/$B7</f>
+        <v>1.0320496252261566</v>
+      </c>
+      <c r="H15" s="24">
+        <f>H7/$B7</f>
+        <v>1.0364435254587749</v>
+      </c>
+      <c r="I15" s="24">
+        <f>I7/$B7</f>
+        <v>1.0338588782631171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="24">
+        <f>C8/$B8</f>
+        <v>0.83544303797468356</v>
+      </c>
+      <c r="D16" s="24">
+        <f>D8/$B8</f>
+        <v>0.91952983725135617</v>
+      </c>
+      <c r="E16" s="24">
+        <f>E8/$B8</f>
+        <v>0.95840867992766721</v>
+      </c>
+      <c r="F16" s="24">
+        <f>F8/$B8</f>
+        <v>0.88245931283905965</v>
+      </c>
+      <c r="G16" s="24">
+        <f>G8/$B8</f>
+        <v>0.98915009041591306</v>
+      </c>
+      <c r="H16" s="24">
+        <f>H8/$B8</f>
+        <v>0.99186256781193494</v>
+      </c>
+      <c r="I16" s="24">
+        <f>I8/$B8</f>
+        <v>0.99005424954792032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="24">
+        <f>C9/$B9</f>
+        <v>0.92290988056460388</v>
+      </c>
+      <c r="D17" s="24">
+        <f>D9/$B9</f>
+        <v>1.0170104958378576</v>
+      </c>
+      <c r="E17" s="24">
+        <f>E9/$B9</f>
+        <v>1.0633369525877669</v>
+      </c>
+      <c r="F17" s="24">
+        <f>F9/$B9</f>
+        <v>0.93666304741223316</v>
+      </c>
+      <c r="G17" s="24">
+        <f>G9/$B9</f>
+        <v>1.0492218602967789</v>
+      </c>
+      <c r="H17" s="24">
+        <f>H9/$B9</f>
+        <v>1.0539268910604418</v>
+      </c>
+      <c r="I17" s="24">
+        <f>I9/$B9</f>
+        <v>1.0513934129569311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="24">
+        <f>C10/$B10</f>
+        <v>0.79529872673849156</v>
+      </c>
+      <c r="D18" s="24">
+        <f>D10/$B10</f>
+        <v>0.87463271302644452</v>
+      </c>
+      <c r="E18" s="24">
+        <f>E10/$B10</f>
+        <v>0.91380999020568066</v>
+      </c>
+      <c r="F18" s="24">
+        <f>F10/$B10</f>
+        <v>0.82174338883447595</v>
+      </c>
+      <c r="G18" s="24">
+        <f>G10/$B10</f>
+        <v>0.92164544564152784</v>
+      </c>
+      <c r="H18" s="24">
+        <f>H10/$B10</f>
+        <v>0.92458374142997046</v>
+      </c>
+      <c r="I18" s="24">
+        <f>I10/$B10</f>
+        <v>0.92262487757100875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="24">
+        <f>C11/$B11</f>
+        <v>1.0941828254847645</v>
+      </c>
+      <c r="D19" s="24">
+        <f>D11/$B11</f>
+        <v>1.0941828254847645</v>
+      </c>
+      <c r="E19" s="24">
+        <f>E11/$B11</f>
+        <v>1.0941828254847645</v>
+      </c>
+      <c r="F19" s="24">
+        <f>F11/$B11</f>
+        <v>1.10803324099723</v>
+      </c>
+      <c r="G19" s="24">
+        <f>G11/$B11</f>
+        <v>1.10803324099723</v>
+      </c>
+      <c r="H19" s="24">
+        <f>H11/$B11</f>
+        <v>1.10803324099723</v>
+      </c>
+      <c r="I19" s="24">
+        <f>I11/$B11</f>
+        <v>1.10803324099723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="24">
+        <f>G12/$B12</f>
+        <v>1.0992328631526851</v>
+      </c>
+      <c r="H20" s="24">
+        <f>H12/$B12</f>
+        <v>1.0517198713189806</v>
+      </c>
+      <c r="I20" s="24">
+        <f>I12/$B12</f>
+        <v>1.0591437762929967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="24">
+        <f>H13/$B13</f>
+        <v>0.94761904761904758</v>
+      </c>
+      <c r="I21" s="24">
+        <f>I13/$B13</f>
+        <v>0.95714285714285696</v>
       </c>
     </row>
   </sheetData>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
     <sheet name="GlobalParams" sheetId="3" r:id="rId2"/>
     <sheet name="returns" sheetId="2" r:id="rId3"/>
-    <sheet name="Calibration_2016" sheetId="7" r:id="rId4"/>
-    <sheet name="Calibration actives" sheetId="8" r:id="rId5"/>
-    <sheet name="Calibration Retirees" sheetId="9" r:id="rId6"/>
+    <sheet name="Calibration_2017" sheetId="10" r:id="rId4"/>
+    <sheet name="Calibration_2016" sheetId="7" r:id="rId5"/>
+    <sheet name="Calibration actives" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId7"/>
+    <sheet name="Calibration Retirees" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{BCB080DD-8D45-48CE-BFD1-F84D2275E680}">
       <text>
         <r>
           <rPr>
@@ -37,7 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -46,7 +48,42 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+AV2016 n47
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 CAFR p105
@@ -59,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="109">
   <si>
     <t>runname</t>
   </si>
@@ -383,12 +420,15 @@
   </si>
   <si>
     <t>PVFB for retirees/bens/disb</t>
+  </si>
+  <si>
+    <t>B(AV2016 e7)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -422,14 +462,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -525,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -578,6 +618,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -603,15 +646,152 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>523214</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>18623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3FAA3CA-141D-46EC-BDDB-1ACA210663C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11772900" y="533400"/>
+          <a:ext cx="5285714" cy="3419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>123048</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>74532</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7E25ED-A5E8-4A9C-BCC8-5399AB61F2C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="3924300"/>
+          <a:ext cx="6219048" cy="13342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139187</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>189401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C8602B-635B-4C03-A05B-DBD5273019A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="723900"/>
+          <a:ext cx="4615937" cy="7514126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1431439</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:colOff>1221889</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -635,7 +815,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1666875" y="7086601"/>
+          <a:off x="1457325" y="7448551"/>
           <a:ext cx="4346089" cy="3848100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1032,11 +1212,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AJ10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A4:AJ15"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,10 +1435,10 @@
         <v>21</v>
       </c>
       <c r="AB5">
-        <v>7.2499999999999995E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="AC5">
-        <v>7.9699999999999993E-2</v>
+        <v>7.9200000000000007E-2</v>
       </c>
       <c r="AD5" s="7">
         <v>0.12</v>
@@ -1270,10 +1450,10 @@
         <v>44</v>
       </c>
       <c r="AG5">
-        <v>0.87622571862258425</v>
+        <v>0.86181585764546287</v>
       </c>
       <c r="AH5">
-        <v>0.92516191485799448</v>
+        <v>0.90380725834975151</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -1356,10 +1536,10 @@
         <v>21</v>
       </c>
       <c r="AB6">
-        <v>7.2499999999999995E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="AC6">
-        <v>7.9699999999999993E-2</v>
+        <v>7.9200000000000007E-2</v>
       </c>
       <c r="AD6" s="7">
         <v>0.12</v>
@@ -1371,10 +1551,10 @@
         <v>44</v>
       </c>
       <c r="AG6">
-        <v>0.87622571862258425</v>
+        <v>0.86181585764546287</v>
       </c>
       <c r="AH6">
-        <v>0.92516191485799448</v>
+        <v>0.90380725834975151</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -1475,10 +1655,10 @@
         <v>44</v>
       </c>
       <c r="AG8">
-        <v>0.87622571862258425</v>
+        <v>0.86181585764546287</v>
       </c>
       <c r="AH8">
-        <v>0.92516191485799448</v>
+        <v>0.90380725834975151</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -1576,10 +1756,10 @@
         <v>44</v>
       </c>
       <c r="AG9">
-        <v>0.87622571862258425</v>
+        <v>0.86181585764546287</v>
       </c>
       <c r="AH9">
-        <v>0.92516191485799448</v>
+        <v>0.90380725834975151</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
@@ -1677,18 +1857,24 @@
         <v>44</v>
       </c>
       <c r="AG10">
-        <v>0.87622571862258425</v>
+        <v>0.86181585764546287</v>
       </c>
       <c r="AH10">
-        <v>0.92516191485799448</v>
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB15">
+        <f>0.072+0.12^2/2</f>
+        <v>7.9199999999999993E-2</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:H10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:H10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:Z10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:Z10" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1698,11 +1884,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,7 +1924,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -1768,11 +1954,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,11 +2119,485 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153440FD-1848-403B-B1D8-875AE891FC5E}">
+  <dimension ref="B4:J40"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39:J40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="17">
+        <v>40.130000000000003</v>
+      </c>
+      <c r="E7" s="18">
+        <f>D8/C7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18">
+        <f>F7/C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="17">
+        <v>11.58</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18">
+        <f>D9/C8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18">
+        <f t="shared" ref="G8:G11" si="0">F8/C8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="17">
+        <f>C7-C8</f>
+        <v>28.550000000000004</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18">
+        <f>D10/C9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="17">
+        <v>42.24</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18">
+        <f>D11/C10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="17">
+        <v>3.76</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18">
+        <f>D12/C11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="17">
+        <f>SUM(C9,C10,C11)</f>
+        <v>74.550000000000011</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="18">
+        <f>D15/C14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18">
+        <f t="shared" ref="G14" si="1">F14/C14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="17">
+        <v>67.38</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="18">
+        <f>D17/C16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18">
+        <f t="shared" ref="G16:G18" si="2">F16/C16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="17">
+        <v>64.25</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18">
+        <f>D18/C17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="17">
+        <f>C14-C16</f>
+        <v>7.1700000000000159</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18">
+        <f>D19/C18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="26">
+        <f>11.582186/111.581756</f>
+        <v>0.10379999755515588</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="12">
+        <f>D22/C21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="18">
+        <f t="shared" ref="G21:G24" si="3">F21/C21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1.07</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12">
+        <f>D23/C22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12">
+        <f>D24/C23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="11">
+        <v>6</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12">
+        <f>D25/C24</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="17">
+        <v>4.49</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="18">
+        <f>D27/C26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18">
+        <f t="shared" ref="G26:G28" si="4">F26/C26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="11">
+        <v>13.5</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="12">
+        <f>D28/C27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="11">
+        <v>14.28</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12">
+        <f>D29/C28</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>C16-C17</f>
+        <v>3.1299999999999955</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>67376892466</v>
+      </c>
+      <c r="I39">
+        <v>74547855025</v>
+      </c>
+      <c r="J39">
+        <f>H39/I39</f>
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>64246523614</v>
+      </c>
+      <c r="I40">
+        <v>74547855025</v>
+      </c>
+      <c r="J40">
+        <f>H40/I40</f>
+        <v>0.86181585764546287</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,10 +2622,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
@@ -2417,12 +3077,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2741,23 +3401,23 @@
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="24">
-        <f>J6/$C6</f>
+        <f t="shared" ref="J12:N16" si="0">J6/$C6</f>
         <v>0.89945722408891182</v>
       </c>
       <c r="K12" s="24">
-        <f>K6/$C6</f>
+        <f t="shared" si="0"/>
         <v>0.98811062289997409</v>
       </c>
       <c r="L12" s="24">
-        <f>L6/$C6</f>
+        <f t="shared" si="0"/>
         <v>1.0338588782631171</v>
       </c>
       <c r="M12" s="24">
-        <f>M6/$C6</f>
+        <f t="shared" si="0"/>
         <v>0.92116826053243739</v>
       </c>
       <c r="N12" s="24">
-        <f>N6/$C6</f>
+        <f t="shared" si="0"/>
         <v>1.0364435254587749</v>
       </c>
     </row>
@@ -2770,23 +3430,23 @@
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24">
-        <f>J7/$C7</f>
+        <f t="shared" si="0"/>
         <v>0.83544303797468356</v>
       </c>
       <c r="K13" s="24">
-        <f>K7/$C7</f>
+        <f t="shared" si="0"/>
         <v>0.91952983725135617</v>
       </c>
       <c r="L13" s="24">
-        <f>L7/$C7</f>
+        <f t="shared" si="0"/>
         <v>0.95840867992766721</v>
       </c>
       <c r="M13" s="24">
-        <f>M7/$C7</f>
+        <f t="shared" si="0"/>
         <v>0.88245931283905965</v>
       </c>
       <c r="N13" s="24">
-        <f>N7/$C7</f>
+        <f t="shared" si="0"/>
         <v>0.99186256781193494</v>
       </c>
     </row>
@@ -2799,23 +3459,23 @@
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24">
-        <f>J8/$C8</f>
+        <f t="shared" si="0"/>
         <v>0.92290988056460388</v>
       </c>
       <c r="K14" s="24">
-        <f>K8/$C8</f>
+        <f t="shared" si="0"/>
         <v>1.0170104958378576</v>
       </c>
       <c r="L14" s="24">
-        <f>L8/$C8</f>
+        <f t="shared" si="0"/>
         <v>1.0633369525877669</v>
       </c>
       <c r="M14" s="24">
-        <f>M8/$C8</f>
+        <f t="shared" si="0"/>
         <v>0.93666304741223316</v>
       </c>
       <c r="N14" s="24">
-        <f>N8/$C8</f>
+        <f t="shared" si="0"/>
         <v>1.0539268910604418</v>
       </c>
     </row>
@@ -2828,45 +3488,45 @@
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24">
-        <f>J9/$C9</f>
+        <f t="shared" si="0"/>
         <v>0.79529872673849156</v>
       </c>
       <c r="K15" s="24">
-        <f>K9/$C9</f>
+        <f t="shared" si="0"/>
         <v>0.87463271302644452</v>
       </c>
       <c r="L15" s="24">
-        <f>L9/$C9</f>
+        <f t="shared" si="0"/>
         <v>0.91380999020568066</v>
       </c>
       <c r="M15" s="24">
-        <f>M9/$C9</f>
+        <f t="shared" si="0"/>
         <v>0.82174338883447595</v>
       </c>
       <c r="N15" s="24">
-        <f>N9/$C9</f>
+        <f t="shared" si="0"/>
         <v>0.92458374142997046</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J16" s="24">
-        <f>J10/$C10</f>
+        <f t="shared" si="0"/>
         <v>1.0941828254847645</v>
       </c>
       <c r="K16" s="24">
-        <f>K10/$C10</f>
+        <f t="shared" si="0"/>
         <v>1.0941828254847645</v>
       </c>
       <c r="L16" s="24">
-        <f>L10/$C10</f>
+        <f t="shared" si="0"/>
         <v>1.0941828254847645</v>
       </c>
       <c r="M16" s="24">
-        <f>M10/$C10</f>
+        <f t="shared" si="0"/>
         <v>1.10803324099723</v>
       </c>
       <c r="N16" s="24">
-        <f>N10/$C10</f>
+        <f t="shared" si="0"/>
         <v>1.10803324099723</v>
       </c>
     </row>
@@ -2875,8 +3535,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CF6BBB-5593-4568-9F0E-D560A9CE8431}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3157,31 +3829,31 @@
         <v>88</v>
       </c>
       <c r="C15" s="24">
-        <f>C7/$B7</f>
+        <f t="shared" ref="C15:I19" si="0">C7/$B7</f>
         <v>0.89945722408891182</v>
       </c>
       <c r="D15" s="24">
-        <f>D7/$B7</f>
+        <f t="shared" si="0"/>
         <v>0.98811062289997409</v>
       </c>
       <c r="E15" s="24">
-        <f>E7/$B7</f>
+        <f t="shared" si="0"/>
         <v>1.0338588782631171</v>
       </c>
       <c r="F15" s="24">
-        <f>F7/$B7</f>
+        <f t="shared" si="0"/>
         <v>0.92116826053243739</v>
       </c>
       <c r="G15" s="24">
-        <f>G7/$B7</f>
+        <f t="shared" si="0"/>
         <v>1.0320496252261566</v>
       </c>
       <c r="H15" s="24">
-        <f>H7/$B7</f>
+        <f t="shared" si="0"/>
         <v>1.0364435254587749</v>
       </c>
       <c r="I15" s="24">
-        <f>I7/$B7</f>
+        <f t="shared" si="0"/>
         <v>1.0338588782631171</v>
       </c>
     </row>
@@ -3190,31 +3862,31 @@
         <v>84</v>
       </c>
       <c r="C16" s="24">
-        <f>C8/$B8</f>
+        <f t="shared" si="0"/>
         <v>0.83544303797468356</v>
       </c>
       <c r="D16" s="24">
-        <f>D8/$B8</f>
+        <f t="shared" si="0"/>
         <v>0.91952983725135617</v>
       </c>
       <c r="E16" s="24">
-        <f>E8/$B8</f>
+        <f t="shared" si="0"/>
         <v>0.95840867992766721</v>
       </c>
       <c r="F16" s="24">
-        <f>F8/$B8</f>
+        <f t="shared" si="0"/>
         <v>0.88245931283905965</v>
       </c>
       <c r="G16" s="24">
-        <f>G8/$B8</f>
+        <f t="shared" si="0"/>
         <v>0.98915009041591306</v>
       </c>
       <c r="H16" s="24">
-        <f>H8/$B8</f>
+        <f t="shared" si="0"/>
         <v>0.99186256781193494</v>
       </c>
       <c r="I16" s="24">
-        <f>I8/$B8</f>
+        <f t="shared" si="0"/>
         <v>0.99005424954792032</v>
       </c>
     </row>
@@ -3223,31 +3895,31 @@
         <v>90</v>
       </c>
       <c r="C17" s="24">
-        <f>C9/$B9</f>
+        <f t="shared" si="0"/>
         <v>0.92290988056460388</v>
       </c>
       <c r="D17" s="24">
-        <f>D9/$B9</f>
+        <f t="shared" si="0"/>
         <v>1.0170104958378576</v>
       </c>
       <c r="E17" s="24">
-        <f>E9/$B9</f>
+        <f t="shared" si="0"/>
         <v>1.0633369525877669</v>
       </c>
       <c r="F17" s="24">
-        <f>F9/$B9</f>
+        <f t="shared" si="0"/>
         <v>0.93666304741223316</v>
       </c>
       <c r="G17" s="24">
-        <f>G9/$B9</f>
+        <f t="shared" si="0"/>
         <v>1.0492218602967789</v>
       </c>
       <c r="H17" s="24">
-        <f>H9/$B9</f>
+        <f t="shared" si="0"/>
         <v>1.0539268910604418</v>
       </c>
       <c r="I17" s="24">
-        <f>I9/$B9</f>
+        <f t="shared" si="0"/>
         <v>1.0513934129569311</v>
       </c>
     </row>
@@ -3256,31 +3928,31 @@
         <v>89</v>
       </c>
       <c r="C18" s="24">
-        <f>C10/$B10</f>
+        <f t="shared" si="0"/>
         <v>0.79529872673849156</v>
       </c>
       <c r="D18" s="24">
-        <f>D10/$B10</f>
+        <f t="shared" si="0"/>
         <v>0.87463271302644452</v>
       </c>
       <c r="E18" s="24">
-        <f>E10/$B10</f>
+        <f t="shared" si="0"/>
         <v>0.91380999020568066</v>
       </c>
       <c r="F18" s="24">
-        <f>F10/$B10</f>
+        <f t="shared" si="0"/>
         <v>0.82174338883447595</v>
       </c>
       <c r="G18" s="24">
-        <f>G10/$B10</f>
+        <f t="shared" si="0"/>
         <v>0.92164544564152784</v>
       </c>
       <c r="H18" s="24">
-        <f>H10/$B10</f>
+        <f t="shared" si="0"/>
         <v>0.92458374142997046</v>
       </c>
       <c r="I18" s="24">
-        <f>I10/$B10</f>
+        <f t="shared" si="0"/>
         <v>0.92262487757100875</v>
       </c>
     </row>
@@ -3289,31 +3961,31 @@
         <v>97</v>
       </c>
       <c r="C19" s="24">
-        <f>C11/$B11</f>
+        <f t="shared" si="0"/>
         <v>1.0941828254847645</v>
       </c>
       <c r="D19" s="24">
-        <f>D11/$B11</f>
+        <f t="shared" si="0"/>
         <v>1.0941828254847645</v>
       </c>
       <c r="E19" s="24">
-        <f>E11/$B11</f>
+        <f t="shared" si="0"/>
         <v>1.0941828254847645</v>
       </c>
       <c r="F19" s="24">
-        <f>F11/$B11</f>
+        <f t="shared" si="0"/>
         <v>1.10803324099723</v>
       </c>
       <c r="G19" s="24">
-        <f>G11/$B11</f>
+        <f t="shared" si="0"/>
         <v>1.10803324099723</v>
       </c>
       <c r="H19" s="24">
-        <f>H11/$B11</f>
+        <f t="shared" si="0"/>
         <v>1.10803324099723</v>
       </c>
       <c r="I19" s="24">
-        <f>I11/$B11</f>
+        <f t="shared" si="0"/>
         <v>1.10803324099723</v>
       </c>
     </row>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="104">
   <si>
     <t>runname</t>
   </si>
@@ -272,15 +272,9 @@
     <t>amort_type</t>
   </si>
   <si>
-    <t>useSharedRisk</t>
-  </si>
-  <si>
     <t>closed</t>
   </si>
   <si>
-    <t>useERC_cap</t>
-  </si>
-  <si>
     <t>useERC_floor</t>
   </si>
   <si>
@@ -317,12 +311,6 @@
     <t>Assumption achived</t>
   </si>
   <si>
-    <t>SharedRisk_cap</t>
-  </si>
-  <si>
-    <t>DC_reform</t>
-  </si>
-  <si>
     <t>t1</t>
   </si>
   <si>
@@ -335,15 +323,6 @@
     <t>policy</t>
   </si>
   <si>
-    <t>RS1_base</t>
-  </si>
-  <si>
-    <t>RS2_base</t>
-  </si>
-  <si>
-    <t>RS3_base</t>
-  </si>
-  <si>
     <t>AV2015</t>
   </si>
   <si>
@@ -423,6 +402,12 @@
   </si>
   <si>
     <t>B(AV2016 e7)</t>
+  </si>
+  <si>
+    <t>i.riskFree</t>
+  </si>
+  <si>
+    <t>internal</t>
   </si>
 </sst>
 </file>
@@ -565,7 +550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -604,9 +589,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,9 +603,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1213,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:AJ15"/>
+  <dimension ref="A4:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,30 +1216,31 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="14.28515625" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
-    <col min="24" max="24" width="14" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" customWidth="1"/>
-    <col min="35" max="35" width="15.140625" customWidth="1"/>
-    <col min="36" max="36" width="16.5703125" customWidth="1"/>
+    <col min="10" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" customWidth="1"/>
+    <col min="27" max="27" width="10.5703125" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" customWidth="1"/>
+    <col min="33" max="33" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -1273,89 +1260,80 @@
       <c r="I4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="20" t="s">
-        <v>74</v>
+      <c r="J4" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="O4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="S4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="W4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="V4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="Z4" s="5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>9</v>
+        <v>102</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1366,10 +1344,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1381,82 +1359,71 @@
         <v>6</v>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
       </c>
       <c r="M5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0.02</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
       </c>
       <c r="P5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" t="s">
-        <v>76</v>
-      </c>
-      <c r="T5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U5">
+        <v>58</v>
+      </c>
+      <c r="Q5">
         <v>12</v>
       </c>
-      <c r="V5">
+      <c r="R5">
         <v>0.04</v>
       </c>
-      <c r="W5">
+      <c r="S5">
         <v>5</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" t="s">
+        <v>21</v>
+      </c>
       <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AC5">
+      <c r="Y5">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="Z5" s="7">
         <v>0.12</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AA5" s="7"/>
+      <c r="AB5" t="s">
         <v>44</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AC5" t="s">
         <v>44</v>
       </c>
-      <c r="AG5">
+      <c r="AD5">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AH5">
+      <c r="AE5">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1482,87 +1449,77 @@
         <v>10</v>
       </c>
       <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
       </c>
-      <c r="N6">
-        <v>0.02</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
       </c>
       <c r="P6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S6" t="s">
-        <v>76</v>
-      </c>
-      <c r="T6" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6">
+        <v>58</v>
+      </c>
+      <c r="Q6">
         <v>12</v>
       </c>
-      <c r="V6">
+      <c r="R6">
         <v>0.04</v>
       </c>
-      <c r="W6">
+      <c r="S6">
         <v>5</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" t="s">
+        <v>21</v>
+      </c>
       <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA6" t="s">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Y6">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AA6" s="7"/>
+      <c r="AB6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD6">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AE6">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>21</v>
-      </c>
-      <c r="AB6">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="AC6">
-        <v>7.9200000000000007E-2</v>
-      </c>
-      <c r="AD6" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG6">
-        <v>0.86181585764546287</v>
-      </c>
-      <c r="AH6">
-        <v>0.90380725834975151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AD7" s="7"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1571,10 +1528,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -1586,84 +1543,73 @@
         <v>0</v>
       </c>
       <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>4</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
       </c>
-      <c r="N8">
-        <v>0.02</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
       </c>
       <c r="P8" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8" t="b">
-        <v>1</v>
-      </c>
-      <c r="S8" t="s">
-        <v>76</v>
-      </c>
-      <c r="T8" t="s">
-        <v>59</v>
-      </c>
-      <c r="U8">
+        <v>58</v>
+      </c>
+      <c r="Q8">
         <v>12</v>
       </c>
-      <c r="V8">
+      <c r="R8">
         <v>0.04</v>
       </c>
-      <c r="W8">
+      <c r="S8">
         <v>5</v>
       </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>103</v>
+      </c>
+      <c r="W8" t="s">
+        <v>21</v>
+      </c>
       <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB8">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AC8">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="AD8" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Y8">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="Z8" s="7">
         <v>0.12</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AA8" s="7"/>
+      <c r="AB8" t="s">
         <v>44</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AC8" t="s">
         <v>44</v>
       </c>
-      <c r="AG8">
+      <c r="AD8">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AH8">
+      <c r="AE8">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1672,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -1687,84 +1633,73 @@
         <v>0</v>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>4</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
       </c>
-      <c r="N9">
-        <v>0.02</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
       </c>
       <c r="P9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9" t="b">
-        <v>1</v>
-      </c>
-      <c r="S9" t="s">
-        <v>76</v>
-      </c>
-      <c r="T9" t="s">
-        <v>59</v>
-      </c>
-      <c r="U9">
+        <v>58</v>
+      </c>
+      <c r="Q9">
         <v>12</v>
       </c>
-      <c r="V9">
+      <c r="R9">
         <v>0.04</v>
       </c>
-      <c r="W9">
+      <c r="S9">
         <v>5</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
+        <v>103</v>
+      </c>
+      <c r="W9" t="s">
+        <v>22</v>
+      </c>
       <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB9">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AC9">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="AD9" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Y9">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="Z9" s="7">
         <v>0.12</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AA9" s="7"/>
+      <c r="AB9" t="s">
         <v>44</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AC9" t="s">
         <v>44</v>
       </c>
-      <c r="AG9">
+      <c r="AD9">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AH9">
+      <c r="AE9">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -1773,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -1788,85 +1723,68 @@
         <v>0</v>
       </c>
       <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
       </c>
-      <c r="N10">
-        <v>0.02</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
       </c>
       <c r="P10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R10" t="b">
-        <v>1</v>
-      </c>
-      <c r="S10" t="s">
-        <v>76</v>
-      </c>
-      <c r="T10" t="s">
-        <v>59</v>
-      </c>
-      <c r="U10">
+        <v>58</v>
+      </c>
+      <c r="Q10">
         <v>12</v>
       </c>
-      <c r="V10">
+      <c r="R10">
         <v>0.04</v>
       </c>
-      <c r="W10">
+      <c r="S10">
         <v>5</v>
       </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>103</v>
+      </c>
+      <c r="W10" t="s">
+        <v>23</v>
+      </c>
       <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB10">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="AC10">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="AD10" s="7">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Y10">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="Z10" s="7">
         <v>0.12</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AA10" s="7"/>
+      <c r="AB10" t="s">
         <v>44</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AC10" t="s">
         <v>44</v>
       </c>
-      <c r="AG10">
+      <c r="AD10">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AH10">
+      <c r="AE10">
         <v>0.90380725834975151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AB15">
-        <f>0.072+0.12^2/2</f>
-        <v>7.9199999999999993E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1874,7 +1792,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:H10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:Z10" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:V10" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1888,7 +1806,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,10 +1845,10 @@
         <v>2017</v>
       </c>
       <c r="B4">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -1945,7 +1863,7 @@
         <v>20</v>
       </c>
       <c r="H4">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1955,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,23 +1917,23 @@
         <v>21</v>
       </c>
       <c r="B2" s="8">
-        <v>7.9699999999999993E-2</v>
+        <v>7.9200000000000007E-2</v>
       </c>
       <c r="C2" s="7">
         <v>0.12</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="8">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="20">
         <f>B2 - C2^2/2</f>
-        <v>7.2499999999999995E-2</v>
+        <v>7.2000000000000008E-2</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2035,12 +1953,12 @@
         <f>B3-C3^2/2</f>
         <v>0.05</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <f t="shared" ref="F3:F6" si="0">B3 - C3^2/2</f>
         <v>0.05</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2060,7 +1978,7 @@
         <f>B4-C4^2/2</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <f t="shared" si="0"/>
         <v>6.5000000000000002E-2</v>
       </c>
@@ -2070,21 +1988,21 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>8.2199999999999995E-2</v>
+        <v>7.9200000000000007E-2</v>
       </c>
       <c r="C5" s="7">
         <v>0.12</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="8">
         <f>B5-C5^2/2</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F5" s="21">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-2</v>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="F5" s="20">
+        <f>B5 - C5^2/2</f>
+        <v>7.2000000000000008E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2092,25 +2010,28 @@
         <v>23</v>
       </c>
       <c r="B6" s="14">
-        <v>8.9791999999999997E-2</v>
+        <v>8.6790000000000006E-2</v>
       </c>
       <c r="C6" s="15">
         <v>0.17199999999999999</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" ref="E6" si="1">B6-C6^2/2</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F6" s="21">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-2</v>
+        <v>7.1998000000000006E-2</v>
+      </c>
+      <c r="F6" s="20">
+        <f>B6 - C6^2/2</f>
+        <v>7.1998000000000006E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
-      </c>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2122,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153440FD-1848-403B-B1D8-875AE891FC5E}">
   <dimension ref="B4:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39:J40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,15 +2055,15 @@
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2151,14 +2072,14 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="27" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G5" s="27"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>52</v>
@@ -2180,32 +2101,41 @@
       <c r="C7" s="17">
         <v>40.130000000000003</v>
       </c>
+      <c r="D7">
+        <v>34.4</v>
+      </c>
       <c r="E7" s="18">
-        <f>D8/C7</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="17"/>
+        <f>D7/C7</f>
+        <v>0.85721405432344866</v>
+      </c>
+      <c r="F7" s="17">
+        <v>41.51</v>
+      </c>
       <c r="G7" s="18">
         <f>F7/C7</f>
-        <v>0</v>
+        <v>1.0343882382257661</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C8" s="17">
         <v>11.58</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="17">
+        <v>8.69</v>
+      </c>
       <c r="E8" s="18">
-        <f>D9/C8</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="17"/>
+        <f t="shared" ref="E8:E11" si="0">D8/C8</f>
+        <v>0.75043177892918822</v>
+      </c>
+      <c r="F8" s="17">
+        <v>11.45</v>
+      </c>
       <c r="G8" s="18">
-        <f t="shared" ref="G8:G11" si="0">F8/C8</f>
-        <v>0</v>
+        <f t="shared" ref="G8:G11" si="1">F8/C8</f>
+        <v>0.98877374784110528</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2216,51 +2146,63 @@
         <f>C7-C8</f>
         <v>28.550000000000004</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="17">
+        <v>25.73</v>
+      </c>
       <c r="E9" s="18">
-        <f>D10/C9</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="17"/>
+        <f t="shared" si="0"/>
+        <v>0.90122591943957953</v>
+      </c>
+      <c r="F9" s="17">
+        <v>30.06</v>
+      </c>
       <c r="G9" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.0528896672504375</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C10" s="17">
         <v>42.24</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="17">
+        <v>48.16</v>
+      </c>
       <c r="E10" s="18">
-        <f>D11/C10</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="17"/>
+        <f t="shared" si="0"/>
+        <v>1.1401515151515149</v>
+      </c>
+      <c r="F10" s="17">
+        <v>46.15</v>
+      </c>
       <c r="G10" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.0925662878787878</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C11" s="17">
         <v>3.76</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="17">
+        <v>3.8</v>
+      </c>
       <c r="E11" s="18">
-        <f>D12/C11</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="17"/>
+        <f t="shared" si="0"/>
+        <v>1.0106382978723405</v>
+      </c>
+      <c r="F11" s="17">
+        <v>3.8</v>
+      </c>
       <c r="G11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1.0106382978723405</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2287,15 +2229,21 @@
         <f>SUM(C9,C10,C11)</f>
         <v>74.550000000000011</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="17">
+        <f>SUM(D9,D10,D11)</f>
+        <v>77.69</v>
+      </c>
       <c r="E14" s="18">
-        <f>D15/C14</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="17"/>
+        <f t="shared" ref="E14" si="2">D14/C14</f>
+        <v>1.0421193829644533</v>
+      </c>
+      <c r="F14" s="17">
+        <f>SUM(F9,F10,F11)</f>
+        <v>80.009999999999991</v>
+      </c>
       <c r="G14" s="18">
-        <f t="shared" ref="G14" si="1">F14/C14</f>
-        <v>0</v>
+        <f t="shared" ref="G14" si="3">F14/C14</f>
+        <v>1.073239436619718</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2315,12 +2263,12 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="18">
-        <f>D17/C16</f>
+        <f t="shared" ref="E16:E18" si="4">D16/C16</f>
         <v>0</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="18">
-        <f t="shared" ref="G16:G18" si="2">F16/C16</f>
+        <f t="shared" ref="G16:G18" si="5">F16/C16</f>
         <v>0</v>
       </c>
     </row>
@@ -2333,18 +2281,18 @@
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="18">
-        <f>D18/C17</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" s="17">
         <f>C14-C16</f>
@@ -2352,12 +2300,12 @@
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="18">
-        <f>D19/C18</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2379,74 +2327,86 @@
     </row>
     <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="26">
+        <v>62</v>
+      </c>
+      <c r="C21" s="25">
         <f>11.582186/111.581756</f>
         <v>0.10379999755515588</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="12">
-        <f>D22/C21</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="11"/>
+      <c r="D21" s="25">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E21" s="18">
+        <f t="shared" ref="E21:E24" si="6">D21/C21</f>
+        <v>0.74181119280937113</v>
+      </c>
+      <c r="F21" s="25">
+        <v>9.5500000000000002E-2</v>
+      </c>
       <c r="G21" s="18">
-        <f t="shared" ref="G21:G24" si="3">F21/C21</f>
-        <v>0</v>
+        <f t="shared" ref="G21:G24" si="7">F21/C21</f>
+        <v>0.92003855731551887</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" s="11">
         <v>1.07</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12">
-        <f>D23/C22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="11"/>
+      <c r="D22" s="11">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E22" s="18">
+        <f t="shared" si="6"/>
+        <v>1.0747663551401867</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1.19</v>
+      </c>
       <c r="G22" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.1121495327102802</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="26">
+        <v>64</v>
+      </c>
+      <c r="C23" s="25">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12">
-        <f>D24/C23</f>
-        <v>0</v>
+      <c r="D23" s="26">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="E23" s="18">
+        <f t="shared" si="6"/>
+        <v>1.1453333333333335</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24" s="11">
         <v>6</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12">
-        <f>D25/C24</f>
-        <v>0</v>
+      <c r="D24" s="11">
+        <v>6</v>
+      </c>
+      <c r="E24" s="18">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2460,61 +2420,67 @@
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C26" s="17">
-        <v>4.49</v>
-      </c>
-      <c r="D26" s="11"/>
+        <v>4.343</v>
+      </c>
+      <c r="D26" s="11">
+        <v>4.32</v>
+      </c>
       <c r="E26" s="18">
-        <f>D27/C26</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="17"/>
+        <f t="shared" ref="E26:E28" si="8">D26/C26</f>
+        <v>0.99470412157494825</v>
+      </c>
+      <c r="F26" s="17">
+        <v>4.16</v>
+      </c>
       <c r="G26" s="18">
-        <f t="shared" ref="G26:G28" si="4">F26/C26</f>
-        <v>0</v>
+        <f t="shared" ref="G26:G28" si="9">F26/C26</f>
+        <v>0.95786322818328351</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C27" s="11">
         <v>13.5</v>
       </c>
       <c r="D27" s="17"/>
-      <c r="E27" s="12">
-        <f>D28/C27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="11"/>
+      <c r="E27" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>13.49</v>
+      </c>
       <c r="G27" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.99925925925925929</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C28" s="11">
         <v>14.28</v>
       </c>
       <c r="D28" s="11"/>
-      <c r="E28" s="12">
-        <f>D29/C28</f>
+      <c r="E28" s="18">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
@@ -2597,7 +2563,7 @@
   <dimension ref="B2:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2612,25 +2578,25 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="27" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G3" s="27"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>52</v>
@@ -2669,7 +2635,7 @@
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C6" s="17">
         <v>11.06</v>
@@ -2715,7 +2681,7 @@
     </row>
     <row r="8" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C8" s="17">
         <v>40.409999999999997</v>
@@ -2737,7 +2703,7 @@
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C9" s="17">
         <v>3.48</v>
@@ -2847,7 +2813,7 @@
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="17">
         <f>C12-C14</f>
@@ -2882,7 +2848,7 @@
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="11">
         <f>6+4.21</f>
@@ -2905,7 +2871,7 @@
     </row>
     <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="11">
         <v>0.8</v>
@@ -2927,7 +2893,7 @@
     </row>
     <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" s="11">
         <v>5.77</v>
@@ -2949,7 +2915,7 @@
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" s="11">
         <v>6</v>
@@ -2979,7 +2945,7 @@
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" s="17">
         <v>4.2</v>
@@ -3001,7 +2967,7 @@
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C25" s="11">
         <v>13.146000000000001</v>
@@ -3023,7 +2989,7 @@
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C26" s="11">
         <v>13.897</v>
@@ -3041,7 +3007,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D27" s="10">
         <v>108.3</v>
@@ -3082,7 +3048,7 @@
   <dimension ref="B1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3100,7 +3066,7 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D1">
         <v>1.1000000000000001</v>
@@ -3135,7 +3101,7 @@
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3153,24 +3119,24 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3190,7 +3156,7 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3211,7 +3177,7 @@
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C6" s="17">
         <v>38.69</v>
@@ -3219,7 +3185,7 @@
       <c r="D6">
         <v>36.5</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>37.18</v>
       </c>
       <c r="F6">
@@ -3228,7 +3194,7 @@
       <c r="G6">
         <v>39.65</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>38.5</v>
       </c>
       <c r="J6">
@@ -3249,7 +3215,7 @@
     </row>
     <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C7" s="17">
         <v>11.06</v>
@@ -3287,7 +3253,7 @@
     </row>
     <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C8" s="17">
         <v>27.629999999999995</v>
@@ -3330,7 +3296,7 @@
     </row>
     <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C9" s="11">
         <v>10.210000000000001</v>
@@ -3368,9 +3334,9 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="25">
+        <v>90</v>
+      </c>
+      <c r="C10" s="24">
         <v>10.83</v>
       </c>
       <c r="J10">
@@ -3393,139 +3359,150 @@
       <c r="B11" s="10"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <f>F6/$C6</f>
         <v>0.98655983458257956</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24">
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="23">
         <f t="shared" ref="J12:N16" si="0">J6/$C6</f>
         <v>0.89945722408891182</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="23">
         <f t="shared" si="0"/>
         <v>0.98811062289997409</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="23">
         <f t="shared" si="0"/>
         <v>1.0338588782631171</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="23">
         <f t="shared" si="0"/>
         <v>0.92116826053243739</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="23">
         <f t="shared" si="0"/>
         <v>1.0364435254587749</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F13" s="24">
+      <c r="F13" s="23">
         <f>F7/$C7</f>
         <v>0.86437613019891502</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24">
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="23">
         <f t="shared" si="0"/>
         <v>0.83544303797468356</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="23">
         <f t="shared" si="0"/>
         <v>0.91952983725135617</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="23">
         <f t="shared" si="0"/>
         <v>0.95840867992766721</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="23">
         <f t="shared" si="0"/>
         <v>0.88245931283905965</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13" s="23">
         <f t="shared" si="0"/>
         <v>0.99186256781193494</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F14" s="24">
+      <c r="F14" s="23">
         <f>F8/$C8</f>
         <v>1.0354686934491497</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24">
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="23">
         <f t="shared" si="0"/>
         <v>0.92290988056460388</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="23">
         <f t="shared" si="0"/>
         <v>1.0170104958378576</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="23">
         <f t="shared" si="0"/>
         <v>1.0633369525877669</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="23">
         <f t="shared" si="0"/>
         <v>0.93666304741223316</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="23">
         <f t="shared" si="0"/>
         <v>1.0539268910604418</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F15" s="24">
+      <c r="F15" s="23">
         <f>F9/$C9</f>
         <v>0.85210577864838377</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24">
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="23">
         <f t="shared" si="0"/>
         <v>0.79529872673849156</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="23">
         <f t="shared" si="0"/>
         <v>0.87463271302644452</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="23">
         <f t="shared" si="0"/>
         <v>0.91380999020568066</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="23">
         <f t="shared" si="0"/>
         <v>0.82174338883447595</v>
       </c>
-      <c r="N15" s="24">
+      <c r="N15" s="23">
         <f t="shared" si="0"/>
         <v>0.92458374142997046</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J16" s="24">
+      <c r="I16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="23">
         <f t="shared" si="0"/>
         <v>1.0941828254847645</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="23">
         <f t="shared" si="0"/>
         <v>1.0941828254847645</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="23">
         <f t="shared" si="0"/>
         <v>1.0941828254847645</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="23">
         <f t="shared" si="0"/>
         <v>1.10803324099723</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="23">
         <f t="shared" si="0"/>
         <v>1.10803324099723</v>
       </c>
@@ -3570,7 +3547,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -3596,58 +3573,58 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B7" s="17">
         <v>38.69</v>
@@ -3676,7 +3653,7 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B8" s="17">
         <v>11.06</v>
@@ -3705,7 +3682,7 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B9" s="17">
         <v>27.629999999999995</v>
@@ -3734,7 +3711,7 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B10" s="11">
         <v>10.210000000000001</v>
@@ -3763,9 +3740,9 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="25">
+        <v>90</v>
+      </c>
+      <c r="B11" s="24">
         <v>10.83</v>
       </c>
       <c r="C11">
@@ -3792,9 +3769,9 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="25">
+        <v>92</v>
+      </c>
+      <c r="B12" s="24">
         <v>40.409999999999997</v>
       </c>
       <c r="G12">
@@ -3809,9 +3786,9 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="25">
+        <v>66</v>
+      </c>
+      <c r="B13" s="24">
         <v>4.2</v>
       </c>
       <c r="H13">
@@ -3826,195 +3803,195 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="24">
+        <v>81</v>
+      </c>
+      <c r="C15" s="23">
         <f t="shared" ref="C15:I19" si="0">C7/$B7</f>
         <v>0.89945722408891182</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="23">
         <f t="shared" si="0"/>
         <v>0.98811062289997409</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <f t="shared" si="0"/>
         <v>1.0338588782631171</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="23">
         <f t="shared" si="0"/>
         <v>0.92116826053243739</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="23">
         <f t="shared" si="0"/>
         <v>1.0320496252261566</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="23">
         <f t="shared" si="0"/>
         <v>1.0364435254587749</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="23">
         <f t="shared" si="0"/>
         <v>1.0338588782631171</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="24">
+        <v>77</v>
+      </c>
+      <c r="C16" s="23">
         <f t="shared" si="0"/>
         <v>0.83544303797468356</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <f t="shared" si="0"/>
         <v>0.91952983725135617</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <f t="shared" si="0"/>
         <v>0.95840867992766721</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="23">
         <f t="shared" si="0"/>
         <v>0.88245931283905965</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="23">
         <f t="shared" si="0"/>
         <v>0.98915009041591306</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="23">
         <f t="shared" si="0"/>
         <v>0.99186256781193494</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="23">
         <f t="shared" si="0"/>
         <v>0.99005424954792032</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="24">
+        <v>83</v>
+      </c>
+      <c r="C17" s="23">
         <f t="shared" si="0"/>
         <v>0.92290988056460388</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23">
         <f t="shared" si="0"/>
         <v>1.0170104958378576</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <f t="shared" si="0"/>
         <v>1.0633369525877669</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <f t="shared" si="0"/>
         <v>0.93666304741223316</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="23">
         <f t="shared" si="0"/>
         <v>1.0492218602967789</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="23">
         <f t="shared" si="0"/>
         <v>1.0539268910604418</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="23">
         <f t="shared" si="0"/>
         <v>1.0513934129569311</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="24">
+        <v>82</v>
+      </c>
+      <c r="C18" s="23">
         <f t="shared" si="0"/>
         <v>0.79529872673849156</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <f t="shared" si="0"/>
         <v>0.87463271302644452</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <f t="shared" si="0"/>
         <v>0.91380999020568066</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="23">
         <f t="shared" si="0"/>
         <v>0.82174338883447595</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="23">
         <f t="shared" si="0"/>
         <v>0.92164544564152784</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="23">
         <f t="shared" si="0"/>
         <v>0.92458374142997046</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="23">
         <f t="shared" si="0"/>
         <v>0.92262487757100875</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="24">
+        <v>90</v>
+      </c>
+      <c r="C19" s="23">
         <f t="shared" si="0"/>
         <v>1.0941828254847645</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <f t="shared" si="0"/>
         <v>1.0941828254847645</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <f t="shared" si="0"/>
         <v>1.0941828254847645</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <f t="shared" si="0"/>
         <v>1.10803324099723</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="23">
         <f t="shared" si="0"/>
         <v>1.10803324099723</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="23">
         <f t="shared" si="0"/>
         <v>1.10803324099723</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="23">
         <f t="shared" si="0"/>
         <v>1.10803324099723</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="24">
+        <v>92</v>
+      </c>
+      <c r="G20" s="23">
         <f>G12/$B12</f>
         <v>1.0992328631526851</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="23">
         <f>H12/$B12</f>
         <v>1.0517198713189806</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="23">
         <f>I12/$B12</f>
         <v>1.0591437762929967</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="24">
+        <v>66</v>
+      </c>
+      <c r="H21" s="23">
         <f>H13/$B13</f>
         <v>0.94761904761904758</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="23">
         <f>I13/$B13</f>
         <v>0.95714285714285696</v>
       </c>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="107">
   <si>
     <t>runname</t>
   </si>
@@ -408,6 +408,15 @@
   </si>
   <si>
     <t>internal</t>
+  </si>
+  <si>
+    <t>RS1_riskFree</t>
+  </si>
+  <si>
+    <t>useECRSP</t>
+  </si>
+  <si>
+    <t>useECRSP_future</t>
   </si>
 </sst>
 </file>
@@ -606,10 +615,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1199,40 +1208,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:AG10"/>
+  <dimension ref="A4:AI12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" customWidth="1"/>
-    <col min="27" max="27" width="10.5703125" customWidth="1"/>
-    <col min="32" max="32" width="15.140625" customWidth="1"/>
-    <col min="33" max="33" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" customWidth="1"/>
+    <col min="34" max="34" width="15.140625" customWidth="1"/>
+    <col min="35" max="35" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,79 +1272,85 @@
         <v>37</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="X4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AD4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AE4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1361,69 +1378,72 @@
       <c r="J5" t="b">
         <v>1</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
         <v>4</v>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
         <v>72</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>58</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>12</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>0.04</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>5</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5" t="b">
-        <v>0</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
         <v>45</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
         <v>21</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="AB5" s="7">
         <v>0.12</v>
       </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" t="s">
+      <c r="AC5" s="7"/>
+      <c r="AD5" t="s">
         <v>44</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>44</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1451,73 +1471,76 @@
       <c r="J6" t="b">
         <v>1</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
         <v>4</v>
       </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
         <v>72</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>58</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>12</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>0.04</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>5</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6" t="b">
-        <v>0</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="s">
         <v>45</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Y6" t="s">
         <v>21</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="AB6" s="7">
         <v>0.12</v>
       </c>
-      <c r="AA6" s="7"/>
-      <c r="AB6" t="s">
+      <c r="AC6" s="7"/>
+      <c r="AD6" t="s">
         <v>44</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
         <v>44</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1531,7 +1554,7 @@
         <v>71</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -1545,74 +1568,80 @@
       <c r="J8" t="b">
         <v>1</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
         <v>4</v>
       </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
         <v>72</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>58</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>12</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>0.04</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>5</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" t="s">
         <v>103</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Y8" t="s">
         <v>21</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="AB8" s="7">
         <v>0.12</v>
       </c>
-      <c r="AA8" s="7"/>
-      <c r="AB8" t="s">
+      <c r="AC8" s="7"/>
+      <c r="AD8" t="s">
         <v>44</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
         <v>44</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1635,74 +1664,80 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
         <v>4</v>
       </c>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
         <v>72</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>58</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>12</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>0.04</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>5</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9" t="b">
-        <v>0</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
         <v>103</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Y9" t="s">
         <v>22</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="AB9" s="7">
         <v>0.12</v>
       </c>
-      <c r="AA9" s="7"/>
-      <c r="AB9" t="s">
+      <c r="AC9" s="7"/>
+      <c r="AD9" t="s">
         <v>44</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
         <v>44</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1725,74 +1760,178 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
         <v>4</v>
       </c>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
         <v>72</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>58</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>12</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>0.04</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>5</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" t="s">
         <v>103</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Y10" t="s">
         <v>23</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="Z10" s="7">
+      <c r="AB10" s="7">
         <v>0.12</v>
       </c>
-      <c r="AA10" s="7"/>
-      <c r="AB10" t="s">
+      <c r="AC10" s="7"/>
+      <c r="AD10" t="s">
         <v>44</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AE10" t="s">
         <v>44</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>72</v>
+      </c>
+      <c r="R12" t="s">
+        <v>58</v>
+      </c>
+      <c r="S12">
+        <v>12</v>
+      </c>
+      <c r="T12">
+        <v>0.04</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z12">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AA12">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AC12">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF12">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AG12">
         <v>0.90380725834975151</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:H10" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:H10 F12:H12" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:V10" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X5:X10 X12" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1806,7 +1945,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G10" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,7 +1984,7 @@
         <v>2017</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -1876,7 +2015,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,7 +2093,7 @@
         <v>0.05</v>
       </c>
       <c r="F3" s="20">
-        <f t="shared" ref="F3:F6" si="0">B3 - C3^2/2</f>
+        <f t="shared" ref="F3:F4" si="0">B3 - C3^2/2</f>
         <v>0.05</v>
       </c>
       <c r="G3" t="s">
@@ -2031,7 +2170,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
+      <c r="B9" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2071,10 +2210,10 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
@@ -2588,10 +2727,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="111">
   <si>
     <t>runname</t>
   </si>
@@ -417,6 +417,18 @@
   </si>
   <si>
     <t>useECRSP_future</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>RS1_ECRSP</t>
+  </si>
+  <si>
+    <t>RS2_ECRSP</t>
+  </si>
+  <si>
+    <t>RS3_ECRSP</t>
   </si>
 </sst>
 </file>
@@ -1208,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:AI12"/>
+  <dimension ref="A4:AI36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1566,7 @@
         <v>71</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -1622,7 +1634,9 @@
       <c r="AB8" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC8" s="7"/>
+      <c r="AC8">
+        <v>3.0599999999999999E-2</v>
+      </c>
       <c r="AD8" t="s">
         <v>44</v>
       </c>
@@ -1650,7 +1664,7 @@
         <v>71</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1718,7 +1732,9 @@
       <c r="AB9" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC9" s="7"/>
+      <c r="AC9">
+        <v>3.0599999999999999E-2</v>
+      </c>
       <c r="AD9" t="s">
         <v>44</v>
       </c>
@@ -1746,7 +1762,7 @@
         <v>71</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1814,7 +1830,9 @@
       <c r="AB10" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC10" s="7"/>
+      <c r="AC10">
+        <v>3.0599999999999999E-2</v>
+      </c>
       <c r="AD10" t="s">
         <v>44</v>
       </c>
@@ -1842,7 +1860,7 @@
         <v>71</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -1926,12 +1944,311 @@
         <v>0.90380725834975151</v>
       </c>
     </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R14" t="s">
+        <v>58</v>
+      </c>
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>0.04</v>
+      </c>
+      <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z14">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AA14">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AC14">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF14">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AG14">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S15">
+        <v>12</v>
+      </c>
+      <c r="T15">
+        <v>0.04</v>
+      </c>
+      <c r="U15">
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z15">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AA15">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AC15">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF15">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AG15">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>72</v>
+      </c>
+      <c r="R16" t="s">
+        <v>58</v>
+      </c>
+      <c r="S16">
+        <v>12</v>
+      </c>
+      <c r="T16">
+        <v>0.04</v>
+      </c>
+      <c r="U16">
+        <v>5</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z16">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AA16">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AC16">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF16">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AG16">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:H10 F12:H12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:H16 F12:H12 F5:H10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X5:X10 X12" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X5:X10 X12 X14:X16" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1945,7 +2262,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,7 +2500,7 @@
   <dimension ref="B4:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="118">
   <si>
     <t>runname</t>
   </si>
@@ -419,16 +419,37 @@
     <t>useECRSP_future</t>
   </si>
   <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>RS1_ECRSP</t>
-  </si>
-  <si>
-    <t>RS2_ECRSP</t>
-  </si>
-  <si>
-    <t>RS3_ECRSP</t>
+    <t>RS1_ECRSP_f</t>
+  </si>
+  <si>
+    <t>RS2_ECRSP_f</t>
+  </si>
+  <si>
+    <t>RS3_ECRSP_f</t>
+  </si>
+  <si>
+    <t>RS1_noECRSP</t>
+  </si>
+  <si>
+    <t>RS2_noECRSP</t>
+  </si>
+  <si>
+    <t>RS3_noECRSP</t>
+  </si>
+  <si>
+    <t>RS1_open12</t>
+  </si>
+  <si>
+    <t>RS1_open24</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>RS1_open24_10y</t>
+  </si>
+  <si>
+    <t>RS1_10y</t>
   </si>
 </sst>
 </file>
@@ -571,7 +592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -631,6 +652,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1220,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:AI36"/>
+  <dimension ref="A4:AI27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,7 +1589,7 @@
         <v>71</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -1651,7 +1674,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="30" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
@@ -1664,7 +1687,7 @@
         <v>71</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1749,7 +1772,7 @@
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="30" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
@@ -1762,7 +1785,7 @@
         <v>71</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1846,9 +1869,13 @@
         <v>0.90380725834975151</v>
       </c>
     </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="AB11" s="7"/>
+    </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>104</v>
+      <c r="A12" s="30" t="s">
+        <v>113</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -1896,7 +1923,7 @@
         <v>72</v>
       </c>
       <c r="R12" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="S12">
         <v>12</v>
@@ -1920,7 +1947,7 @@
         <v>21</v>
       </c>
       <c r="Z12">
-        <v>3.0599999999999999E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="AA12">
         <v>7.9200000000000007E-2</v>
@@ -1944,9 +1971,107 @@
         <v>0.90380725834975151</v>
       </c>
     </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>72</v>
+      </c>
+      <c r="R13" t="s">
+        <v>115</v>
+      </c>
+      <c r="S13">
+        <v>24</v>
+      </c>
+      <c r="T13">
+        <v>0.04</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z13">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AA13">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AC13">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF13">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AG13">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>108</v>
+      <c r="A14" s="30" t="s">
+        <v>116</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -1973,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -1994,16 +2119,16 @@
         <v>72</v>
       </c>
       <c r="R14" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="S14">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="T14">
         <v>0.04</v>
       </c>
       <c r="U14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2043,11 +2168,11 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>109</v>
+      <c r="A15" s="30" t="s">
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2071,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -2101,7 +2226,7 @@
         <v>0.04</v>
       </c>
       <c r="U15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2113,7 +2238,7 @@
         <v>103</v>
       </c>
       <c r="Y15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z15">
         <v>7.1999999999999995E-2</v>
@@ -2141,114 +2266,706 @@
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="30"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R17" t="s">
+        <v>58</v>
+      </c>
+      <c r="S17">
+        <v>12</v>
+      </c>
+      <c r="T17">
+        <v>0.04</v>
+      </c>
+      <c r="U17">
+        <v>5</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z17">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AA17">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AC17">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF17">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AG17">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>72</v>
+      </c>
+      <c r="R18" t="s">
+        <v>58</v>
+      </c>
+      <c r="S18">
+        <v>12</v>
+      </c>
+      <c r="T18">
+        <v>0.04</v>
+      </c>
+      <c r="U18">
+        <v>5</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z18">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AA18">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AC18">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF18">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AG18">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
         <v>71</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
         <v>4</v>
       </c>
-      <c r="O16" t="b">
-        <v>1</v>
-      </c>
-      <c r="P16" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
         <v>72</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R19" t="s">
         <v>58</v>
       </c>
-      <c r="S16">
+      <c r="S19">
         <v>12</v>
       </c>
-      <c r="T16">
+      <c r="T19">
         <v>0.04</v>
       </c>
-      <c r="U16">
+      <c r="U19">
         <v>5</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16" t="b">
-        <v>0</v>
-      </c>
-      <c r="X16" t="s">
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19" t="s">
         <v>103</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Y19" t="s">
         <v>23</v>
       </c>
-      <c r="Z16">
+      <c r="Z19">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AA16">
+      <c r="AA19">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AB19" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC16">
+      <c r="AC19">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AD19" t="s">
         <v>44</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AE19" t="s">
         <v>44</v>
       </c>
-      <c r="AF16">
+      <c r="AF19">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AG16">
+      <c r="AG19">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
         <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>72</v>
+      </c>
+      <c r="R23" t="s">
+        <v>58</v>
+      </c>
+      <c r="S23">
+        <v>12</v>
+      </c>
+      <c r="T23">
+        <v>0.04</v>
+      </c>
+      <c r="U23">
+        <v>5</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z23">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AA23">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AC23">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF23">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AG23">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>72</v>
+      </c>
+      <c r="R24" t="s">
+        <v>58</v>
+      </c>
+      <c r="S24">
+        <v>12</v>
+      </c>
+      <c r="T24">
+        <v>0.04</v>
+      </c>
+      <c r="U24">
+        <v>5</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z24">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AA24">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AC24">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF24">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AG24">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R25" t="s">
+        <v>58</v>
+      </c>
+      <c r="S25">
+        <v>12</v>
+      </c>
+      <c r="T25">
+        <v>0.04</v>
+      </c>
+      <c r="U25">
+        <v>5</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z25">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AA25">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AC25">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF25">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AG25">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>72</v>
+      </c>
+      <c r="R27" t="s">
+        <v>58</v>
+      </c>
+      <c r="S27">
+        <v>12</v>
+      </c>
+      <c r="T27">
+        <v>0.04</v>
+      </c>
+      <c r="U27">
+        <v>5</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z27">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AA27">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AC27">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF27">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AG27">
+        <v>0.90380725834975151</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:H16 F12:H12 F5:H10" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:H19 F27:H27 F23:H25 F5:H15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X5:X10 X12 X14:X16" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X27 X23:X25 X17:X19 X5:X15" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2262,7 +2979,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,7 +3049,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,7 +3099,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="8">
-        <v>7.2499999999999995E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F2" s="20">
         <f>B2 - C2^2/2</f>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -649,11 +649,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1246,7 +1246,7 @@
   <dimension ref="A4:AI27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,7 +1674,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
@@ -1772,7 +1772,7 @@
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
@@ -1870,11 +1870,11 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="29"/>
       <c r="AB11" s="7"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>113</v>
       </c>
       <c r="B12" t="s">
@@ -1972,7 +1972,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="29" t="s">
         <v>114</v>
       </c>
       <c r="B13" t="s">
@@ -2070,7 +2070,7 @@
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>116</v>
       </c>
       <c r="B14" t="s">
@@ -2168,7 +2168,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>117</v>
       </c>
       <c r="B15" t="s">
@@ -2266,10 +2266,10 @@
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="29"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>110</v>
       </c>
       <c r="B17" t="s">
@@ -2367,7 +2367,7 @@
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>111</v>
       </c>
       <c r="B18" t="s">
@@ -2465,7 +2465,7 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>112</v>
       </c>
       <c r="B19" t="s">
@@ -2563,10 +2563,10 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
+      <c r="A20" s="29"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>107</v>
       </c>
       <c r="B23" t="s">
@@ -2664,7 +2664,7 @@
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>108</v>
       </c>
       <c r="B24" t="s">
@@ -2762,7 +2762,7 @@
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>109</v>
       </c>
       <c r="B25" t="s">
@@ -2860,10 +2860,10 @@
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
+      <c r="A26" s="28"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="28" t="s">
         <v>104</v>
       </c>
       <c r="B27" t="s">
@@ -3244,10 +3244,10 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
@@ -3761,10 +3761,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="119">
   <si>
     <t>runname</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>RS1_10y</t>
+  </si>
+  <si>
+    <t>RS1_closed</t>
   </si>
 </sst>
 </file>
@@ -1243,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:AI27"/>
+  <dimension ref="A4:AI29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,7 +2086,7 @@
         <v>71</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -2181,7 +2184,7 @@
         <v>71</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2960,12 +2963,110 @@
         <v>0.90380725834975151</v>
       </c>
     </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>72</v>
+      </c>
+      <c r="R29" t="s">
+        <v>58</v>
+      </c>
+      <c r="S29">
+        <v>12</v>
+      </c>
+      <c r="T29">
+        <v>0.04</v>
+      </c>
+      <c r="U29">
+        <v>5</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29" t="b">
+        <v>1</v>
+      </c>
+      <c r="X29" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z29">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AA29">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AC29">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF29">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AG29">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:H19 F27:H27 F23:H25 F5:H15" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:H19 F27:H27 F23:H25 F29:H29 F5:H15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X27 X23:X25 X17:X19 X5:X15" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X27 X23:X25 X17:X19 X5:X15 X29" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3217,7 +3318,7 @@
   <dimension ref="B4:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3698,6 +3799,10 @@
       <c r="E35" s="10"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f>303/579</f>
+        <v>0.52331606217616577</v>
+      </c>
       <c r="H39">
         <v>67376892466</v>
       </c>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Calibration Retirees" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{BCB080DD-8D45-48CE-BFD1-F84D2275E680}">
+    <comment ref="B27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,12 +62,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="122">
   <si>
     <t>runname</t>
   </si>
@@ -453,12 +454,21 @@
   </si>
   <si>
     <t>RS1_closed</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>contingent ECRSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use risk free rate </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -595,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -654,6 +664,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1245,1356 +1256,1360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:AI29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:AJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
-    <col min="22" max="22" width="14" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" customWidth="1"/>
-    <col min="34" max="34" width="15.140625" customWidth="1"/>
-    <col min="35" max="35" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="14" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" customWidth="1"/>
+    <col min="35" max="35" width="15.140625" customWidth="1"/>
+    <col min="36" max="36" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AE4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AF4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AH4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>71</v>
       </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>6</v>
       </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
         <v>4</v>
       </c>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>72</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>58</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>12</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.04</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>5</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>21</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AC5" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC5" s="7"/>
-      <c r="AD5" t="s">
-        <v>44</v>
-      </c>
+      <c r="AD5" s="7"/>
       <c r="AE5" t="s">
         <v>44</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG5">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
         <v>4</v>
       </c>
-      <c r="O6" t="b">
-        <v>1</v>
-      </c>
       <c r="P6" t="b">
         <v>1</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
         <v>72</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>58</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>12</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.04</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>5</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>21</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AC6" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC6" s="7"/>
-      <c r="AD6" t="s">
-        <v>44</v>
-      </c>
+      <c r="AD6" s="7"/>
       <c r="AE6" t="s">
         <v>44</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG6">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="AB7" s="7"/>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AC7" s="7"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD7" s="7"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>71</v>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
         <v>4</v>
       </c>
-      <c r="O8" t="b">
-        <v>1</v>
-      </c>
       <c r="P8" t="b">
         <v>1</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
         <v>72</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>58</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>12</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>0.04</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>5</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
         <v>103</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>21</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AC8" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>44</v>
       </c>
       <c r="AE8" t="s">
         <v>44</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG8">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>71</v>
       </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
         <v>4</v>
       </c>
-      <c r="O9" t="b">
-        <v>1</v>
-      </c>
       <c r="P9" t="b">
         <v>1</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
         <v>72</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>58</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>12</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.04</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>5</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
         <v>103</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>22</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AC9" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>44</v>
       </c>
       <c r="AE9" t="s">
         <v>44</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG9">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>71</v>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
         <v>4</v>
       </c>
-      <c r="O10" t="b">
-        <v>1</v>
-      </c>
       <c r="P10" t="b">
         <v>1</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
         <v>72</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>58</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>12</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>0.04</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>5</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10" t="b">
-        <v>0</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
         <v>103</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>23</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AC10" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>44</v>
       </c>
       <c r="AE10" t="s">
         <v>44</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG10">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
-      <c r="AB11" s="7"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AC11" s="7"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>71</v>
       </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
       </c>
       <c r="K12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
         <v>4</v>
       </c>
-      <c r="O12" t="b">
-        <v>1</v>
-      </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
         <v>72</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>115</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>12</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>0.04</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>5</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12" t="b">
-        <v>0</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>21</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AC12" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>44</v>
       </c>
       <c r="AE12" t="s">
         <v>44</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG12">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>71</v>
       </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
         <v>4</v>
       </c>
-      <c r="O13" t="b">
-        <v>1</v>
-      </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
         <v>72</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>115</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>24</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>0.04</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>5</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13" t="b">
-        <v>0</v>
-      </c>
-      <c r="X13" t="s">
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="s">
         <v>103</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>21</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AB13" s="7">
+      <c r="AC13" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>44</v>
       </c>
       <c r="AE13" t="s">
         <v>44</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG13">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>71</v>
       </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
         <v>4</v>
       </c>
-      <c r="O14" t="b">
-        <v>1</v>
-      </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
         <v>72</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>115</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>24</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>0.04</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>10</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14" t="b">
-        <v>0</v>
-      </c>
-      <c r="X14" t="s">
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="s">
         <v>103</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>21</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AC14" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>44</v>
       </c>
       <c r="AE14" t="s">
         <v>44</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG14">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>71</v>
       </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
         <v>4</v>
       </c>
-      <c r="O15" t="b">
-        <v>1</v>
-      </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
         <v>72</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>58</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>12</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>0.04</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>10</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15" t="b">
-        <v>0</v>
-      </c>
-      <c r="X15" t="s">
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>21</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AB15" s="7">
+      <c r="AC15" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>44</v>
       </c>
       <c r="AE15" t="s">
         <v>44</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG15">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>71</v>
       </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="b">
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
       <c r="L17" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
         <v>4</v>
       </c>
-      <c r="O17" t="b">
-        <v>1</v>
-      </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
         <v>72</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>58</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>12</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>0.04</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>5</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17" t="b">
-        <v>0</v>
-      </c>
-      <c r="X17" t="s">
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="s">
         <v>103</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>21</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AB17" s="7">
+      <c r="AC17" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>44</v>
       </c>
       <c r="AE17" t="s">
         <v>44</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG17">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
         <v>71</v>
       </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="b">
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
       <c r="L18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
         <v>4</v>
       </c>
-      <c r="O18" t="b">
-        <v>1</v>
-      </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
         <v>72</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>58</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>12</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.04</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>5</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18" t="b">
-        <v>0</v>
-      </c>
-      <c r="X18" t="s">
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="s">
         <v>103</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>22</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AC18" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>44</v>
       </c>
       <c r="AE18" t="s">
         <v>44</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG18">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>23</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
         <v>71</v>
       </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="b">
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
       <c r="L19" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
         <v>4</v>
       </c>
-      <c r="O19" t="b">
-        <v>1</v>
-      </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
         <v>72</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>58</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>12</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.04</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>5</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19" t="b">
-        <v>0</v>
-      </c>
-      <c r="X19" t="s">
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="s">
         <v>103</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>23</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AB19" s="7">
+      <c r="AC19" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>44</v>
       </c>
       <c r="AE19" t="s">
         <v>44</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG19">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
         <v>71</v>
       </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="b">
-        <v>1</v>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
@@ -2602,97 +2617,100 @@
       <c r="L23" t="b">
         <v>1</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
         <v>4</v>
       </c>
-      <c r="O23" t="b">
-        <v>1</v>
-      </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s">
         <v>72</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>58</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>12</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.04</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>5</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23" t="b">
-        <v>0</v>
-      </c>
-      <c r="X23" t="s">
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="s">
         <v>103</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>21</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AB23" s="7">
+      <c r="AC23" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>44</v>
       </c>
       <c r="AE23" t="s">
         <v>44</v>
       </c>
-      <c r="AF23">
+      <c r="AF23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG23">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
         <v>71</v>
       </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="b">
-        <v>1</v>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -2700,97 +2718,100 @@
       <c r="L24" t="b">
         <v>1</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
         <v>4</v>
       </c>
-      <c r="O24" t="b">
-        <v>1</v>
-      </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24" t="b">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s">
         <v>72</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>58</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>12</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.04</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>5</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24" t="b">
-        <v>0</v>
-      </c>
-      <c r="X24" t="s">
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="s">
         <v>103</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>22</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AB24" s="7">
+      <c r="AC24" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>44</v>
       </c>
       <c r="AE24" t="s">
         <v>44</v>
       </c>
-      <c r="AF24">
+      <c r="AF24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG24">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
         <v>71</v>
       </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="b">
-        <v>1</v>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -2798,275 +2819,281 @@
       <c r="L25" t="b">
         <v>1</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
         <v>4</v>
       </c>
-      <c r="O25" t="b">
-        <v>1</v>
-      </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
         <v>72</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>58</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>12</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>0.04</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>5</v>
       </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25" t="b">
-        <v>0</v>
-      </c>
-      <c r="X25" t="s">
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="s">
         <v>103</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>23</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AB25" s="7">
+      <c r="AC25" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>44</v>
       </c>
       <c r="AE25" t="s">
         <v>44</v>
       </c>
-      <c r="AF25">
+      <c r="AF25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG25">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
         <v>21</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
         <v>71</v>
       </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="b">
-        <v>1</v>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
       </c>
       <c r="K27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
         <v>4</v>
       </c>
-      <c r="O27" t="b">
-        <v>1</v>
-      </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q27" t="b">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s">
         <v>72</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>58</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>12</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>0.04</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>5</v>
       </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27" t="b">
-        <v>0</v>
-      </c>
-      <c r="X27" t="s">
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="s">
         <v>103</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>21</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AB27" s="7">
+      <c r="AC27" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>44</v>
       </c>
       <c r="AE27" t="s">
         <v>44</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG27">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>118</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>21</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
         <v>71</v>
       </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" t="b">
-        <v>1</v>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
       </c>
       <c r="K29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="b">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
         <v>4</v>
       </c>
-      <c r="O29" t="b">
-        <v>1</v>
-      </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q29" t="b">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s">
         <v>72</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>58</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>12</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>0.04</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>5</v>
       </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29" t="b">
-        <v>1</v>
-      </c>
-      <c r="X29" t="s">
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y29" t="s">
         <v>103</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>21</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AB29" s="7">
+      <c r="AC29" s="7">
         <v>0.12</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>44</v>
       </c>
       <c r="AE29" t="s">
         <v>44</v>
       </c>
-      <c r="AF29">
+      <c r="AF29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG29">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>0.90380725834975151</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:H19 F27:H27 F23:H25 F29:H29 F5:H15" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:I19 G27:I27 G23:I25 G29:I29 G5:I15">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X27 X23:X25 X17:X19 X5:X15 X29" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y27 Y23:Y25 Y17:Y19 Y5:Y15 Y29">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3076,7 +3103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3146,7 +3173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3228,7 +3255,7 @@
         <v>0.05</v>
       </c>
       <c r="F3" s="20">
-        <f t="shared" ref="F3:F4" si="0">B3 - C3^2/2</f>
+        <f>B3 - C3^2/2</f>
         <v>0.05</v>
       </c>
       <c r="G3" t="s">
@@ -3253,7 +3280,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F4" s="20">
-        <f t="shared" si="0"/>
+        <f>B4 - C4^2/2</f>
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
@@ -3293,7 +3320,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="8">
-        <f t="shared" ref="E6" si="1">B6-C6^2/2</f>
+        <f>B6-C6^2/2</f>
         <v>7.1998000000000006E-2</v>
       </c>
       <c r="F6" s="20">
@@ -3314,7 +3341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153440FD-1848-403B-B1D8-875AE891FC5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3345,10 +3372,10 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
@@ -3401,14 +3428,14 @@
         <v>8.69</v>
       </c>
       <c r="E8" s="18">
-        <f t="shared" ref="E8:E11" si="0">D8/C8</f>
+        <f>D8/C8</f>
         <v>0.75043177892918822</v>
       </c>
       <c r="F8" s="17">
         <v>11.45</v>
       </c>
       <c r="G8" s="18">
-        <f t="shared" ref="G8:G11" si="1">F8/C8</f>
+        <f>F8/C8</f>
         <v>0.98877374784110528</v>
       </c>
     </row>
@@ -3424,14 +3451,14 @@
         <v>25.73</v>
       </c>
       <c r="E9" s="18">
-        <f t="shared" si="0"/>
+        <f>D9/C9</f>
         <v>0.90122591943957953</v>
       </c>
       <c r="F9" s="17">
         <v>30.06</v>
       </c>
       <c r="G9" s="18">
-        <f t="shared" si="1"/>
+        <f>F9/C9</f>
         <v>1.0528896672504375</v>
       </c>
     </row>
@@ -3446,14 +3473,14 @@
         <v>48.16</v>
       </c>
       <c r="E10" s="18">
-        <f t="shared" si="0"/>
+        <f>D10/C10</f>
         <v>1.1401515151515149</v>
       </c>
       <c r="F10" s="17">
         <v>46.15</v>
       </c>
       <c r="G10" s="18">
-        <f t="shared" si="1"/>
+        <f>F10/C10</f>
         <v>1.0925662878787878</v>
       </c>
     </row>
@@ -3468,14 +3495,14 @@
         <v>3.8</v>
       </c>
       <c r="E11" s="18">
-        <f t="shared" si="0"/>
+        <f>D11/C11</f>
         <v>1.0106382978723405</v>
       </c>
       <c r="F11" s="17">
         <v>3.8</v>
       </c>
       <c r="G11" s="18">
-        <f t="shared" si="1"/>
+        <f>F11/C11</f>
         <v>1.0106382978723405</v>
       </c>
     </row>
@@ -3508,7 +3535,7 @@
         <v>77.69</v>
       </c>
       <c r="E14" s="18">
-        <f t="shared" ref="E14" si="2">D14/C14</f>
+        <f>D14/C14</f>
         <v>1.0421193829644533</v>
       </c>
       <c r="F14" s="17">
@@ -3516,7 +3543,7 @@
         <v>80.009999999999991</v>
       </c>
       <c r="G14" s="18">
-        <f t="shared" ref="G14" si="3">F14/C14</f>
+        <f>F14/C14</f>
         <v>1.073239436619718</v>
       </c>
     </row>
@@ -3537,12 +3564,12 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="18">
-        <f t="shared" ref="E16:E18" si="4">D16/C16</f>
+        <f>D16/C16</f>
         <v>0</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="18">
-        <f t="shared" ref="G16:G18" si="5">F16/C16</f>
+        <f>F16/C16</f>
         <v>0</v>
       </c>
     </row>
@@ -3555,12 +3582,12 @@
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="18">
-        <f t="shared" si="4"/>
+        <f>D17/C17</f>
         <v>0</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="18">
-        <f t="shared" si="5"/>
+        <f>F17/C17</f>
         <v>0</v>
       </c>
     </row>
@@ -3574,12 +3601,12 @@
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="18">
-        <f t="shared" si="4"/>
+        <f>D18/C18</f>
         <v>0</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="18">
-        <f t="shared" si="5"/>
+        <f>F18/C18</f>
         <v>0</v>
       </c>
     </row>
@@ -3611,14 +3638,14 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="E21" s="18">
-        <f t="shared" ref="E21:E24" si="6">D21/C21</f>
+        <f>D21/C21</f>
         <v>0.74181119280937113</v>
       </c>
       <c r="F21" s="25">
         <v>9.5500000000000002E-2</v>
       </c>
       <c r="G21" s="18">
-        <f t="shared" ref="G21:G24" si="7">F21/C21</f>
+        <f>F21/C21</f>
         <v>0.92003855731551887</v>
       </c>
     </row>
@@ -3633,14 +3660,14 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="E22" s="18">
-        <f t="shared" si="6"/>
+        <f>D22/C22</f>
         <v>1.0747663551401867</v>
       </c>
       <c r="F22" s="11">
         <v>1.19</v>
       </c>
       <c r="G22" s="18">
-        <f t="shared" si="7"/>
+        <f>F22/C22</f>
         <v>1.1121495327102802</v>
       </c>
     </row>
@@ -3655,12 +3682,12 @@
         <v>8.5900000000000004E-2</v>
       </c>
       <c r="E23" s="18">
-        <f t="shared" si="6"/>
+        <f>D23/C23</f>
         <v>1.1453333333333335</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="18">
-        <f t="shared" si="7"/>
+        <f>F23/C23</f>
         <v>0</v>
       </c>
     </row>
@@ -3675,12 +3702,12 @@
         <v>6</v>
       </c>
       <c r="E24" s="18">
-        <f t="shared" si="6"/>
+        <f>D24/C24</f>
         <v>1</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="18">
-        <f t="shared" si="7"/>
+        <f>F24/C24</f>
         <v>0</v>
       </c>
     </row>
@@ -3703,14 +3730,14 @@
         <v>4.32</v>
       </c>
       <c r="E26" s="18">
-        <f t="shared" ref="E26:E28" si="8">D26/C26</f>
+        <f>D26/C26</f>
         <v>0.99470412157494825</v>
       </c>
       <c r="F26" s="17">
         <v>4.16</v>
       </c>
       <c r="G26" s="18">
-        <f t="shared" ref="G26:G28" si="9">F26/C26</f>
+        <f>F26/C26</f>
         <v>0.95786322818328351</v>
       </c>
     </row>
@@ -3723,14 +3750,14 @@
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="18">
-        <f t="shared" si="8"/>
+        <f>D27/C27</f>
         <v>0</v>
       </c>
       <c r="F27" s="11">
         <v>13.49</v>
       </c>
       <c r="G27" s="18">
-        <f t="shared" si="9"/>
+        <f>F27/C27</f>
         <v>0.99925925925925929</v>
       </c>
     </row>
@@ -3743,12 +3770,12 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="18">
-        <f t="shared" si="8"/>
+        <f>D28/C28</f>
         <v>0</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="18">
-        <f t="shared" si="9"/>
+        <f>F28/C28</f>
         <v>0</v>
       </c>
     </row>
@@ -3837,7 +3864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3866,10 +3893,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
@@ -3929,7 +3956,7 @@
         <v>10.95</v>
       </c>
       <c r="G6" s="18">
-        <f t="shared" ref="G6:G9" si="0">F6/C6</f>
+        <f>F6/C6</f>
         <v>0.99005424954792032</v>
       </c>
     </row>
@@ -3953,11 +3980,11 @@
         <v>29.05</v>
       </c>
       <c r="G7" s="18">
-        <f t="shared" si="0"/>
+        <f>F7/C7</f>
         <v>1.0513934129569311</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
         <v>100</v>
       </c>
@@ -3968,14 +3995,14 @@
         <v>46.4</v>
       </c>
       <c r="E8" s="18">
-        <f t="shared" ref="E8:E24" si="1">D8/C8</f>
+        <f t="shared" ref="E8:E24" si="0">D8/C8</f>
         <v>1.1482306359811929</v>
       </c>
       <c r="F8" s="17">
         <v>42.8</v>
       </c>
       <c r="G8" s="18">
-        <f t="shared" si="0"/>
+        <f>F8/C8</f>
         <v>1.0591437762929967</v>
       </c>
     </row>
@@ -3997,7 +4024,7 @@
         <v>3.47</v>
       </c>
       <c r="G9" s="18">
-        <f t="shared" si="0"/>
+        <f>F9/C9</f>
         <v>0.99712643678160928</v>
       </c>
     </row>
@@ -4026,14 +4053,14 @@
         <v>74.745000000000005</v>
       </c>
       <c r="E12" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0450922818791948</v>
       </c>
       <c r="F12" s="17">
         <v>76.97</v>
       </c>
       <c r="G12" s="18">
-        <f t="shared" ref="G12" si="2">F12/C12</f>
+        <f>F12/C12</f>
         <v>1.076202460850112</v>
       </c>
     </row>
@@ -4056,14 +4083,14 @@
         <v>73.599999999999994</v>
       </c>
       <c r="E14" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1122865346833912</v>
       </c>
       <c r="F14" s="17">
         <v>73.599999999999994</v>
       </c>
       <c r="G14" s="18">
-        <f t="shared" ref="G14:G16" si="3">F14/C14</f>
+        <f>F14/C14</f>
         <v>1.1122865346833912</v>
       </c>
     </row>
@@ -4078,14 +4105,14 @@
         <v>69.69</v>
       </c>
       <c r="E15" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.112015318334131</v>
       </c>
       <c r="F15" s="17">
         <v>69.69</v>
       </c>
       <c r="G15" s="18">
-        <f t="shared" si="3"/>
+        <f>F15/C15</f>
         <v>1.112015318334131</v>
       </c>
     </row>
@@ -4101,14 +4128,14 @@
         <v>5.95</v>
       </c>
       <c r="E16" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1121495327102815</v>
       </c>
       <c r="F16" s="17">
         <v>5.95</v>
       </c>
       <c r="G16" s="18">
-        <f t="shared" si="3"/>
+        <f>F16/C16</f>
         <v>1.1121495327102815</v>
       </c>
     </row>
@@ -4143,7 +4170,7 @@
         <v>7.6</v>
       </c>
       <c r="G19" s="18">
-        <f t="shared" ref="G19:G22" si="4">F19/C19</f>
+        <f>F19/C19</f>
         <v>0.7443682664054847</v>
       </c>
     </row>
@@ -4158,14 +4185,14 @@
         <v>0.91</v>
       </c>
       <c r="E20" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1375</v>
       </c>
       <c r="F20" s="11">
         <v>0.91</v>
       </c>
       <c r="G20" s="18">
-        <f t="shared" si="4"/>
+        <f>F20/C20</f>
         <v>1.1375</v>
       </c>
     </row>
@@ -4180,14 +4207,14 @@
         <v>6.9</v>
       </c>
       <c r="E21" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1958405545927211</v>
       </c>
       <c r="F21" s="11">
         <v>6.9</v>
       </c>
       <c r="G21" s="18">
-        <f t="shared" si="4"/>
+        <f>F21/C21</f>
         <v>1.1958405545927211</v>
       </c>
     </row>
@@ -4202,14 +4229,14 @@
         <v>6</v>
       </c>
       <c r="E22" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F22" s="11">
         <v>6</v>
       </c>
       <c r="G22" s="18">
-        <f t="shared" si="4"/>
+        <f>F22/C22</f>
         <v>1</v>
       </c>
     </row>
@@ -4232,14 +4259,14 @@
         <v>4.28</v>
       </c>
       <c r="E24" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.019047619047619</v>
       </c>
       <c r="F24" s="17">
         <v>4.28</v>
       </c>
       <c r="G24" s="18">
-        <f t="shared" ref="G24:G26" si="5">F24/C24</f>
+        <f>F24/C24</f>
         <v>1.019047619047619</v>
       </c>
     </row>
@@ -4261,7 +4288,7 @@
         <v>13.14</v>
       </c>
       <c r="G25" s="18">
-        <f t="shared" si="5"/>
+        <f>F25/C25</f>
         <v>0.9995435874030123</v>
       </c>
     </row>
@@ -4279,7 +4306,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="18">
-        <f t="shared" si="5"/>
+        <f>F26/C26</f>
         <v>0</v>
       </c>
     </row>
@@ -4322,11 +4349,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4791,7 +4818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CF6BBB-5593-4568-9F0E-D560A9CE8431}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4803,7 +4830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="returns" sheetId="2" r:id="rId3"/>
     <sheet name="Calibration_2017" sheetId="10" r:id="rId4"/>
     <sheet name="Calibration_2016" sheetId="7" r:id="rId5"/>
-    <sheet name="Calibration actives" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId7"/>
-    <sheet name="Calibration Retirees" sheetId="9" r:id="rId8"/>
+    <sheet name="Calibration actives_2016" sheetId="12" r:id="rId6"/>
+    <sheet name="Calibration actives_2015" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId8"/>
+    <sheet name="Calibration Retirees" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="124">
   <si>
     <t>runname</t>
   </si>
@@ -378,18 +378,6 @@
     <t>AL retirees</t>
   </si>
   <si>
-    <t>mortality</t>
-  </si>
-  <si>
-    <t>post +5%</t>
-  </si>
-  <si>
-    <t>95% init benefit</t>
-  </si>
-  <si>
-    <t>96% init benefit; post + 2.5%</t>
-  </si>
-  <si>
     <t>No calibration</t>
   </si>
   <si>
@@ -463,6 +451,24 @@
   </si>
   <si>
     <t xml:space="preserve">use risk free rate </t>
+  </si>
+  <si>
+    <t>RS1_calib</t>
+  </si>
+  <si>
+    <t>AV2016</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>no calibration</t>
+  </si>
+  <si>
+    <t>salgrowth + 0.75%</t>
+  </si>
+  <si>
+    <t>salgrowth (-20% to +20%) + 0.75%</t>
   </si>
 </sst>
 </file>
@@ -605,7 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -667,6 +673,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1257,7 +1267,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AJ29"/>
+  <dimension ref="A4:AJ31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
@@ -1298,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
@@ -1325,10 +1335,10 @@
         <v>37</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>59</v>
@@ -1382,7 +1392,7 @@
         <v>9</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AE4" s="9" t="s">
         <v>40</v>
@@ -1607,7 +1617,7 @@
         <v>71</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -1661,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Z8" t="s">
         <v>21</v>
@@ -1759,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Z9" t="s">
         <v>22</v>
@@ -1857,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Z10" t="s">
         <v>23</v>
@@ -1893,7 +1903,7 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1941,7 +1951,7 @@
         <v>72</v>
       </c>
       <c r="S12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T12">
         <v>12</v>
@@ -1959,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Z12" t="s">
         <v>21</v>
@@ -1991,7 +2001,7 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -2039,7 +2049,7 @@
         <v>72</v>
       </c>
       <c r="S13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T13">
         <v>24</v>
@@ -2057,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Z13" t="s">
         <v>21</v>
@@ -2089,7 +2099,7 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -2137,7 +2147,7 @@
         <v>72</v>
       </c>
       <c r="S14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T14">
         <v>24</v>
@@ -2155,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Z14" t="s">
         <v>21</v>
@@ -2187,7 +2197,7 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -2253,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Z15" t="s">
         <v>21</v>
@@ -2288,7 +2298,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -2354,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Z17" t="s">
         <v>21</v>
@@ -2386,7 +2396,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -2452,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Z18" t="s">
         <v>22</v>
@@ -2484,7 +2494,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -2550,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Z19" t="s">
         <v>23</v>
@@ -2585,10 +2595,10 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
@@ -2654,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Z23" t="s">
         <v>21</v>
@@ -2686,10 +2696,10 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
@@ -2755,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Z24" t="s">
         <v>22</v>
@@ -2787,10 +2797,10 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -2856,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Z25" t="s">
         <v>23</v>
@@ -2891,10 +2901,10 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
@@ -2960,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Z27" t="s">
         <v>21</v>
@@ -2992,7 +3002,7 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
@@ -3058,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="Y29" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Z29" t="s">
         <v>21</v>
@@ -3088,12 +3098,110 @@
         <v>0.90380725834975151</v>
       </c>
     </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>4</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="b">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s">
+        <v>72</v>
+      </c>
+      <c r="S31" t="s">
+        <v>58</v>
+      </c>
+      <c r="T31">
+        <v>12</v>
+      </c>
+      <c r="U31">
+        <v>0.04</v>
+      </c>
+      <c r="V31">
+        <v>5</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA31">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AB31">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AC31" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AD31">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG31">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AH31">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:I19 G27:I27 G23:I25 G29:I29 G5:I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:I19 G27:I27 G23:I25 G29:I29 G5:I15 G31:I31">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y27 Y23:Y25 Y17:Y19 Y5:Y15 Y29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y27 Y23:Y25 Y17:Y19 Y5:Y15 Y29 Y31">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3107,7 +3215,7 @@
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,7 +3254,7 @@
         <v>2017</v>
       </c>
       <c r="B4">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3344,8 +3452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3360,11 +3468,11 @@
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3373,14 +3481,14 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="31" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G5" s="31"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>52</v>
@@ -3464,7 +3572,7 @@
     </row>
     <row r="10" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C10" s="17">
         <v>42.24</v>
@@ -3721,7 +3829,7 @@
     </row>
     <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C26" s="17">
         <v>4.343</v>
@@ -3868,7 +3976,7 @@
   <dimension ref="B2:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3886,15 +3994,15 @@
         <v>60</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="31" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G3" s="31"/>
     </row>
@@ -3986,7 +4094,7 @@
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C8" s="17">
         <v>40.409999999999997</v>
@@ -4350,10 +4458,247 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="17">
+        <v>40.130000000000003</v>
+      </c>
+      <c r="D3">
+        <v>34.42</v>
+      </c>
+      <c r="E3" s="32">
+        <v>36.97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="17">
+        <v>11.58</v>
+      </c>
+      <c r="D4">
+        <v>8.69</v>
+      </c>
+      <c r="E4" s="32">
+        <v>10.196400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="17">
+        <f>C3-C4</f>
+        <v>28.550000000000004</v>
+      </c>
+      <c r="D5">
+        <v>25.73</v>
+      </c>
+      <c r="E5" s="32">
+        <v>26.77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="11">
+        <v>10.38</v>
+      </c>
+      <c r="D6">
+        <v>7.7</v>
+      </c>
+      <c r="E6" s="32">
+        <v>8.5060000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="24">
+        <v>111.58</v>
+      </c>
+      <c r="D7">
+        <v>117.96</v>
+      </c>
+      <c r="E7" s="32">
+        <v>124.18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="23">
+        <f t="shared" ref="D9:H13" si="0">D3/$C3</f>
+        <v>0.85771243458759028</v>
+      </c>
+      <c r="E9" s="23">
+        <f t="shared" si="0"/>
+        <v>0.92125591826563658</v>
+      </c>
+      <c r="F9" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="23">
+        <f t="shared" si="0"/>
+        <v>0.75043177892918822</v>
+      </c>
+      <c r="E10" s="23">
+        <f t="shared" si="0"/>
+        <v>0.88051813471502594</v>
+      </c>
+      <c r="F10" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="23">
+        <f t="shared" si="0"/>
+        <v>0.90122591943957953</v>
+      </c>
+      <c r="E11" s="23">
+        <f t="shared" si="0"/>
+        <v>0.93765323992994731</v>
+      </c>
+      <c r="F11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.74181117533718688</v>
+      </c>
+      <c r="E12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.81946050096339107</v>
+      </c>
+      <c r="F12" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0571787058612654</v>
+      </c>
+      <c r="E13" s="23">
+        <f t="shared" si="0"/>
+        <v>1.1129234629861984</v>
+      </c>
+      <c r="F13" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4817,7 +5162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4829,18 +5174,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I5"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
@@ -4851,453 +5196,382 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E1">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>1.125</v>
-      </c>
-      <c r="H1">
-        <v>1.125</v>
-      </c>
-      <c r="I1">
-        <v>1.125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C1" t="s">
         <v>93</v>
       </c>
-      <c r="G5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="17">
+        <v>38.69</v>
+      </c>
+      <c r="C4">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D4">
+        <v>38.229999999999997</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>35.64</v>
+      </c>
+      <c r="G4">
+        <v>39.93</v>
+      </c>
+      <c r="H4">
+        <v>40.1</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="17">
+        <v>11.06</v>
+      </c>
+      <c r="C5">
+        <v>9.24</v>
+      </c>
+      <c r="D5">
+        <v>10.17</v>
+      </c>
+      <c r="E5">
+        <v>10.6</v>
+      </c>
+      <c r="F5">
+        <v>9.76</v>
+      </c>
+      <c r="G5">
+        <v>10.94</v>
+      </c>
+      <c r="H5">
+        <v>10.97</v>
+      </c>
+      <c r="I5">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="17">
+        <v>27.629999999999995</v>
+      </c>
+      <c r="C6">
+        <v>25.5</v>
+      </c>
+      <c r="D6">
+        <v>28.1</v>
+      </c>
+      <c r="E6">
+        <v>29.38</v>
+      </c>
+      <c r="F6">
+        <v>25.88</v>
+      </c>
+      <c r="G6">
+        <v>28.99</v>
+      </c>
+      <c r="H6">
+        <v>29.12</v>
+      </c>
+      <c r="I6">
+        <v>29.05</v>
+      </c>
+    </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="17">
-        <v>38.69</v>
+        <v>82</v>
+      </c>
+      <c r="B7" s="11">
+        <v>10.210000000000001</v>
       </c>
       <c r="C7">
-        <v>34.799999999999997</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="D7">
-        <v>38.229999999999997</v>
+        <v>8.93</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>9.33</v>
       </c>
       <c r="F7">
-        <v>35.64</v>
+        <v>8.39</v>
       </c>
       <c r="G7">
-        <v>39.93</v>
+        <v>9.41</v>
       </c>
       <c r="H7">
-        <v>40.1</v>
+        <v>9.44</v>
       </c>
       <c r="I7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="17">
-        <v>11.06</v>
+        <v>90</v>
+      </c>
+      <c r="B8" s="24">
+        <v>10.83</v>
       </c>
       <c r="C8">
-        <v>9.24</v>
+        <v>11.85</v>
       </c>
       <c r="D8">
-        <v>10.17</v>
+        <v>11.85</v>
       </c>
       <c r="E8">
-        <v>10.6</v>
+        <v>11.85</v>
       </c>
       <c r="F8">
-        <v>9.76</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>10.94</v>
+        <v>12</v>
       </c>
       <c r="H8">
-        <v>10.97</v>
+        <v>12</v>
       </c>
       <c r="I8">
-        <v>10.95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="17">
-        <v>27.629999999999995</v>
-      </c>
-      <c r="C9">
-        <v>25.5</v>
-      </c>
-      <c r="D9">
-        <v>28.1</v>
-      </c>
-      <c r="E9">
-        <v>29.38</v>
-      </c>
-      <c r="F9">
-        <v>25.88</v>
+        <v>92</v>
+      </c>
+      <c r="B9" s="24">
+        <v>40.409999999999997</v>
       </c>
       <c r="G9">
-        <v>28.99</v>
+        <v>44.42</v>
       </c>
       <c r="H9">
-        <v>29.12</v>
+        <v>42.5</v>
       </c>
       <c r="I9">
-        <v>29.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="11">
-        <v>10.210000000000001</v>
-      </c>
-      <c r="C10">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="D10">
-        <v>8.93</v>
-      </c>
-      <c r="E10">
-        <v>9.33</v>
-      </c>
-      <c r="F10">
-        <v>8.39</v>
-      </c>
-      <c r="G10">
-        <v>9.41</v>
+        <v>66</v>
+      </c>
+      <c r="B10" s="24">
+        <v>4.2</v>
       </c>
       <c r="H10">
-        <v>9.44</v>
+        <v>3.98</v>
       </c>
       <c r="I10">
-        <v>9.42</v>
+        <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="24">
-        <v>10.83</v>
-      </c>
-      <c r="C11">
-        <v>11.85</v>
-      </c>
-      <c r="D11">
-        <v>11.85</v>
-      </c>
-      <c r="E11">
-        <v>11.85</v>
-      </c>
-      <c r="F11">
-        <v>12</v>
-      </c>
-      <c r="G11">
-        <v>12</v>
-      </c>
-      <c r="H11">
-        <v>12</v>
-      </c>
-      <c r="I11">
-        <v>12</v>
-      </c>
+      <c r="A11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="24">
-        <v>40.409999999999997</v>
-      </c>
-      <c r="G12">
-        <v>44.42</v>
-      </c>
-      <c r="H12">
-        <v>42.5</v>
-      </c>
-      <c r="I12">
-        <v>42.8</v>
+        <v>81</v>
+      </c>
+      <c r="C12" s="23">
+        <f t="shared" ref="C12:I16" si="0">C4/$B4</f>
+        <v>0.89945722408891182</v>
+      </c>
+      <c r="D12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.98811062289997409</v>
+      </c>
+      <c r="E12" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0338588782631171</v>
+      </c>
+      <c r="F12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.92116826053243739</v>
+      </c>
+      <c r="G12" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0320496252261566</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0364435254587749</v>
+      </c>
+      <c r="I12" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0338588782631171</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="24">
-        <v>4.2</v>
-      </c>
-      <c r="H13">
-        <v>3.98</v>
-      </c>
-      <c r="I13">
-        <v>4.0199999999999996</v>
+        <v>77</v>
+      </c>
+      <c r="C13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.83544303797468356</v>
+      </c>
+      <c r="D13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.91952983725135617</v>
+      </c>
+      <c r="E13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.95840867992766721</v>
+      </c>
+      <c r="F13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.88245931283905965</v>
+      </c>
+      <c r="G13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.98915009041591306</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.99186256781193494</v>
+      </c>
+      <c r="I13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.99005424954792032</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="23">
+        <f t="shared" si="0"/>
+        <v>0.92290988056460388</v>
+      </c>
+      <c r="D14" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0170104958378576</v>
+      </c>
+      <c r="E14" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0633369525877669</v>
+      </c>
+      <c r="F14" s="23">
+        <f t="shared" si="0"/>
+        <v>0.93666304741223316</v>
+      </c>
+      <c r="G14" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0492218602967789</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0539268910604418</v>
+      </c>
+      <c r="I14" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0513934129569311</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" s="23">
-        <f t="shared" ref="C15:I19" si="0">C7/$B7</f>
-        <v>0.89945722408891182</v>
+        <f t="shared" si="0"/>
+        <v>0.79529872673849156</v>
       </c>
       <c r="D15" s="23">
         <f t="shared" si="0"/>
-        <v>0.98811062289997409</v>
+        <v>0.87463271302644452</v>
       </c>
       <c r="E15" s="23">
         <f t="shared" si="0"/>
-        <v>1.0338588782631171</v>
+        <v>0.91380999020568066</v>
       </c>
       <c r="F15" s="23">
         <f t="shared" si="0"/>
-        <v>0.92116826053243739</v>
+        <v>0.82174338883447595</v>
       </c>
       <c r="G15" s="23">
         <f t="shared" si="0"/>
-        <v>1.0320496252261566</v>
+        <v>0.92164544564152784</v>
       </c>
       <c r="H15" s="23">
         <f t="shared" si="0"/>
-        <v>1.0364435254587749</v>
+        <v>0.92458374142997046</v>
       </c>
       <c r="I15" s="23">
         <f t="shared" si="0"/>
-        <v>1.0338588782631171</v>
+        <v>0.92262487757100875</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C16" s="23">
         <f t="shared" si="0"/>
-        <v>0.83544303797468356</v>
+        <v>1.0941828254847645</v>
       </c>
       <c r="D16" s="23">
         <f t="shared" si="0"/>
-        <v>0.91952983725135617</v>
+        <v>1.0941828254847645</v>
       </c>
       <c r="E16" s="23">
         <f t="shared" si="0"/>
-        <v>0.95840867992766721</v>
+        <v>1.0941828254847645</v>
       </c>
       <c r="F16" s="23">
         <f t="shared" si="0"/>
-        <v>0.88245931283905965</v>
+        <v>1.10803324099723</v>
       </c>
       <c r="G16" s="23">
         <f t="shared" si="0"/>
-        <v>0.98915009041591306</v>
+        <v>1.10803324099723</v>
       </c>
       <c r="H16" s="23">
         <f t="shared" si="0"/>
-        <v>0.99186256781193494</v>
+        <v>1.10803324099723</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" si="0"/>
-        <v>0.99005424954792032</v>
+        <v>1.10803324099723</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="23">
-        <f t="shared" si="0"/>
-        <v>0.92290988056460388</v>
-      </c>
-      <c r="D17" s="23">
-        <f t="shared" si="0"/>
-        <v>1.0170104958378576</v>
-      </c>
-      <c r="E17" s="23">
-        <f t="shared" si="0"/>
-        <v>1.0633369525877669</v>
-      </c>
-      <c r="F17" s="23">
-        <f t="shared" si="0"/>
-        <v>0.93666304741223316</v>
+        <v>92</v>
       </c>
       <c r="G17" s="23">
-        <f t="shared" si="0"/>
-        <v>1.0492218602967789</v>
+        <f>G9/$B9</f>
+        <v>1.0992328631526851</v>
       </c>
       <c r="H17" s="23">
-        <f t="shared" si="0"/>
-        <v>1.0539268910604418</v>
+        <f>H9/$B9</f>
+        <v>1.0517198713189806</v>
       </c>
       <c r="I17" s="23">
-        <f t="shared" si="0"/>
-        <v>1.0513934129569311</v>
+        <f>I9/$B9</f>
+        <v>1.0591437762929967</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="23">
-        <f t="shared" si="0"/>
-        <v>0.79529872673849156</v>
-      </c>
-      <c r="D18" s="23">
-        <f t="shared" si="0"/>
-        <v>0.87463271302644452</v>
-      </c>
-      <c r="E18" s="23">
-        <f t="shared" si="0"/>
-        <v>0.91380999020568066</v>
-      </c>
-      <c r="F18" s="23">
-        <f t="shared" si="0"/>
-        <v>0.82174338883447595</v>
-      </c>
-      <c r="G18" s="23">
-        <f t="shared" si="0"/>
-        <v>0.92164544564152784</v>
+        <v>66</v>
       </c>
       <c r="H18" s="23">
-        <f t="shared" si="0"/>
-        <v>0.92458374142997046</v>
+        <f>H10/$B10</f>
+        <v>0.94761904761904758</v>
       </c>
       <c r="I18" s="23">
-        <f t="shared" si="0"/>
-        <v>0.92262487757100875</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="23">
-        <f t="shared" si="0"/>
-        <v>1.0941828254847645</v>
-      </c>
-      <c r="D19" s="23">
-        <f t="shared" si="0"/>
-        <v>1.0941828254847645</v>
-      </c>
-      <c r="E19" s="23">
-        <f t="shared" si="0"/>
-        <v>1.0941828254847645</v>
-      </c>
-      <c r="F19" s="23">
-        <f t="shared" si="0"/>
-        <v>1.10803324099723</v>
-      </c>
-      <c r="G19" s="23">
-        <f t="shared" si="0"/>
-        <v>1.10803324099723</v>
-      </c>
-      <c r="H19" s="23">
-        <f t="shared" si="0"/>
-        <v>1.10803324099723</v>
-      </c>
-      <c r="I19" s="23">
-        <f t="shared" si="0"/>
-        <v>1.10803324099723</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="23">
-        <f>G12/$B12</f>
-        <v>1.0992328631526851</v>
-      </c>
-      <c r="H20" s="23">
-        <f>H12/$B12</f>
-        <v>1.0517198713189806</v>
-      </c>
-      <c r="I20" s="23">
-        <f>I12/$B12</f>
-        <v>1.0591437762929967</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="23">
-        <f>H13/$B13</f>
-        <v>0.94761904761904758</v>
-      </c>
-      <c r="I21" s="23">
-        <f>I13/$B13</f>
+        <f>I10/$B10</f>
         <v>0.95714285714285696</v>
       </c>
     </row>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
     <sheet name="GlobalParams" sheetId="3" r:id="rId2"/>
     <sheet name="returns" sheetId="2" r:id="rId3"/>
-    <sheet name="Calibration_2017" sheetId="10" r:id="rId4"/>
-    <sheet name="Calibration_2016" sheetId="7" r:id="rId5"/>
-    <sheet name="Calibration actives_2016" sheetId="12" r:id="rId6"/>
+    <sheet name="Calibration_2016" sheetId="10" r:id="rId4"/>
+    <sheet name="Calibration actives_2016" sheetId="12" r:id="rId5"/>
+    <sheet name="Calibration_2015" sheetId="7" r:id="rId6"/>
     <sheet name="Calibration actives_2015" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="11" r:id="rId8"/>
     <sheet name="Calibration Retirees" sheetId="9" r:id="rId9"/>
@@ -27,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B27" authorId="0" shapeId="0">
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,12 +62,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="134">
   <si>
     <t>runname</t>
   </si>
@@ -417,15 +417,6 @@
     <t>RS3_ECRSP_f</t>
   </si>
   <si>
-    <t>RS1_noECRSP</t>
-  </si>
-  <si>
-    <t>RS2_noECRSP</t>
-  </si>
-  <si>
-    <t>RS3_noECRSP</t>
-  </si>
-  <si>
     <t>RS1_open12</t>
   </si>
   <si>
@@ -469,12 +460,51 @@
   </si>
   <si>
     <t>salgrowth (-20% to +20%) + 0.75%</t>
+  </si>
+  <si>
+    <t>salgrowth (-10% to +10%) + 0.75%, bfactor * 1.1</t>
+  </si>
+  <si>
+    <t>ECRSP_year</t>
+  </si>
+  <si>
+    <t>salgrowth + 0.75%, bfactor * 1.125</t>
+  </si>
+  <si>
+    <t>calibration</t>
+  </si>
+  <si>
+    <t>RS1_ECRSP30</t>
+  </si>
+  <si>
+    <t>RS2_ECRSP30</t>
+  </si>
+  <si>
+    <t>RS3_ECRSP30</t>
+  </si>
+  <si>
+    <t>RS1_ECRSP0</t>
+  </si>
+  <si>
+    <t>RS3_ECRSP0</t>
+  </si>
+  <si>
+    <t>RS2_ECRSP0</t>
+  </si>
+  <si>
+    <t>RS1_ECRSP15</t>
+  </si>
+  <si>
+    <t>RS2_ECRSP15</t>
+  </si>
+  <si>
+    <t>RS3_ECRSP15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -671,12 +701,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -789,15 +819,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>139187</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>189401</xdr:rowOff>
+      <xdr:colOff>443987</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>75101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -820,7 +850,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6953250" y="723900"/>
+          <a:off x="7448550" y="990600"/>
           <a:ext cx="4615937" cy="7514126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1266,49 +1296,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AJ31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A4:AL35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="29" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" customWidth="1"/>
-    <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" customWidth="1"/>
-    <col min="30" max="30" width="10.5703125" customWidth="1"/>
-    <col min="35" max="35" width="15.140625" customWidth="1"/>
-    <col min="36" max="36" width="16.5703125" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="16" width="14.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="14" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" customWidth="1"/>
+    <col min="32" max="32" width="10.5703125" customWidth="1"/>
+    <col min="37" max="37" width="15.140625" customWidth="1"/>
+    <col min="38" max="38" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
@@ -1317,103 +1350,109 @@
         <v>74</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="Z4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AE4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AF4" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AG4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AH4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AI4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AK4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1423,90 +1462,93 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>6</v>
       </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>4</v>
       </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
         <v>72</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>58</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>12</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>0.04</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>5</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
         <v>45</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
         <v>21</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AE5" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD5" s="7"/>
-      <c r="AE5" t="s">
+      <c r="AF5" s="7"/>
+      <c r="AG5" t="s">
         <v>44</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>44</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1516,96 +1558,102 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>10</v>
       </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>4</v>
       </c>
-      <c r="P6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
         <v>72</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>58</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>12</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>0.04</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>5</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
         <v>45</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AB6" t="s">
         <v>21</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AE6" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD6" s="7"/>
-      <c r="AE6" t="s">
+      <c r="AF6" s="7"/>
+      <c r="AG6" t="s">
         <v>44</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>44</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>114</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1613,493 +1661,423 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
         <v>71</v>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>4</v>
       </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
         <v>72</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>58</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>12</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>0.04</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>5</v>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="s">
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="s">
         <v>99</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AB8" t="s">
         <v>21</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AD8">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AF8">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI8">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AJ8">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="AE9" s="7"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>72</v>
+      </c>
+      <c r="U10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V10">
+        <v>12</v>
+      </c>
+      <c r="W10">
+        <v>0.04</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC10">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AB8">
+      <c r="AD10">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AE10" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD8">
+      <c r="AF10">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG10" t="s">
         <v>44</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH10" t="s">
         <v>44</v>
       </c>
-      <c r="AG8">
+      <c r="AI10">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AH8">
+      <c r="AJ10">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
         <v>71</v>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
         <v>4</v>
       </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
         <v>72</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U11" t="s">
         <v>58</v>
       </c>
-      <c r="T9">
+      <c r="V11">
         <v>12</v>
       </c>
-      <c r="U9">
+      <c r="W11">
         <v>0.04</v>
       </c>
-      <c r="V9">
+      <c r="X11">
         <v>5</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="s">
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="s">
         <v>99</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AB11" t="s">
         <v>22</v>
       </c>
-      <c r="AA9">
+      <c r="AC11">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AB9">
+      <c r="AD11">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AE11" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD9">
+      <c r="AF11">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AG11" t="s">
         <v>44</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH11" t="s">
         <v>44</v>
       </c>
-      <c r="AG9">
+      <c r="AI11">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AH9">
+      <c r="AJ11">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
         <v>71</v>
       </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
         <v>4</v>
       </c>
-      <c r="P10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="b">
-        <v>1</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="R12" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
         <v>72</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U12" t="s">
         <v>58</v>
       </c>
-      <c r="T10">
+      <c r="V12">
         <v>12</v>
       </c>
-      <c r="U10">
+      <c r="W12">
         <v>0.04</v>
       </c>
-      <c r="V10">
+      <c r="X12">
         <v>5</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="s">
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="s">
         <v>99</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AB12" t="s">
         <v>23</v>
       </c>
-      <c r="AA10">
+      <c r="AC12">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AB10">
+      <c r="AD12">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AC10" s="7">
+      <c r="AE12" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD10">
+      <c r="AF12">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AG12" t="s">
         <v>44</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH12" t="s">
         <v>44</v>
       </c>
-      <c r="AG10">
+      <c r="AI12">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AH10">
+      <c r="AJ12">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="AC11" s="7"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="b">
-        <v>1</v>
-      </c>
-      <c r="R12" t="s">
-        <v>72</v>
-      </c>
-      <c r="S12" t="s">
-        <v>111</v>
-      </c>
-      <c r="T12">
-        <v>12</v>
-      </c>
-      <c r="U12">
-        <v>0.04</v>
-      </c>
-      <c r="V12">
-        <v>5</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA12">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="AB12">
-        <v>7.9200000000000007E-2</v>
-      </c>
-      <c r="AC12" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AD12">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG12">
-        <v>0.86181585764546287</v>
-      </c>
-      <c r="AH12">
-        <v>0.90380725834975151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>4</v>
-      </c>
-      <c r="P13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="b">
-        <v>1</v>
-      </c>
-      <c r="R13" t="s">
-        <v>72</v>
-      </c>
-      <c r="S13" t="s">
-        <v>111</v>
-      </c>
-      <c r="T13">
-        <v>24</v>
-      </c>
-      <c r="U13">
-        <v>0.04</v>
-      </c>
-      <c r="V13">
-        <v>5</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA13">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="AB13">
-        <v>7.9200000000000007E-2</v>
-      </c>
-      <c r="AC13" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AD13">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG13">
-        <v>0.86181585764546287</v>
-      </c>
-      <c r="AH13">
-        <v>0.90380725834975151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="AE13" s="7"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -2107,97 +2085,103 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>71</v>
       </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
         <v>4</v>
       </c>
-      <c r="P14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="b">
-        <v>1</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="R14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
         <v>72</v>
       </c>
-      <c r="S14" t="s">
-        <v>111</v>
-      </c>
-      <c r="T14">
-        <v>24</v>
-      </c>
-      <c r="U14">
+      <c r="U14" t="s">
+        <v>108</v>
+      </c>
+      <c r="V14">
+        <v>12</v>
+      </c>
+      <c r="W14">
         <v>0.04</v>
       </c>
-      <c r="V14">
-        <v>10</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="s">
+      <c r="X14">
+        <v>5</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="s">
         <v>99</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AB14" t="s">
         <v>21</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AC14" s="7">
+      <c r="AE14" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD14">
+      <c r="AF14">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AG14" t="s">
         <v>44</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>44</v>
       </c>
-      <c r="AG14">
+      <c r="AI14">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AH14">
+      <c r="AJ14">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -2205,100 +2189,207 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
         <v>71</v>
       </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
       </c>
       <c r="L15" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" t="b">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
         <v>4</v>
       </c>
-      <c r="P15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="b">
-        <v>1</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="R15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
         <v>72</v>
       </c>
-      <c r="S15" t="s">
-        <v>58</v>
-      </c>
-      <c r="T15">
-        <v>12</v>
-      </c>
-      <c r="U15">
+      <c r="U15" t="s">
+        <v>108</v>
+      </c>
+      <c r="V15">
+        <v>24</v>
+      </c>
+      <c r="W15">
         <v>0.04</v>
       </c>
-      <c r="V15">
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC15">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AD15">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AF15">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI15">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AJ15">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>72</v>
+      </c>
+      <c r="U16" t="s">
+        <v>108</v>
+      </c>
+      <c r="V16">
+        <v>24</v>
+      </c>
+      <c r="W16">
+        <v>0.04</v>
+      </c>
+      <c r="X16">
         <v>10</v>
       </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="s">
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="s">
         <v>99</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AB16" t="s">
         <v>21</v>
       </c>
-      <c r="AA15">
+      <c r="AC16">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AB15">
+      <c r="AD16">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AC15" s="7">
+      <c r="AE16" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD15">
+      <c r="AF16">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AG16" t="s">
         <v>44</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH16" t="s">
         <v>44</v>
       </c>
-      <c r="AG15">
+      <c r="AI16">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AH15">
+      <c r="AJ16">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -2306,299 +2397,522 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
         <v>71</v>
       </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="b">
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="s">
         <v>4</v>
       </c>
-      <c r="P17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="b">
-        <v>1</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="R17" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17" t="b">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
         <v>72</v>
       </c>
-      <c r="S17" t="s">
+      <c r="U17" t="s">
         <v>58</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>12</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>0.04</v>
       </c>
-      <c r="V17">
+      <c r="X17">
+        <v>10</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC17">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AD17">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AE17" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AF17">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI17">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AJ17">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
+        <v>72</v>
+      </c>
+      <c r="U19" t="s">
+        <v>58</v>
+      </c>
+      <c r="V19">
+        <v>12</v>
+      </c>
+      <c r="W19">
+        <v>0.04</v>
+      </c>
+      <c r="X19">
         <v>5</v>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="s">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="s">
         <v>99</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AB19" t="s">
         <v>21</v>
       </c>
-      <c r="AA17">
+      <c r="AC19">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AB17">
+      <c r="AD19">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AC17" s="7">
+      <c r="AE19" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD17">
+      <c r="AF19">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AG19" t="s">
         <v>44</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH19" t="s">
         <v>44</v>
       </c>
-      <c r="AG17">
+      <c r="AI19">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AH17">
+      <c r="AJ19">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>15</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" t="b">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>72</v>
+      </c>
+      <c r="U20" t="s">
+        <v>58</v>
+      </c>
+      <c r="V20">
+        <v>12</v>
+      </c>
+      <c r="W20">
+        <v>0.04</v>
+      </c>
+      <c r="X20">
+        <v>5</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC20">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AD20">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AE20" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AF20">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI20">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AJ20">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
         <v>71</v>
       </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" t="b">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>30</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
         <v>4</v>
       </c>
-      <c r="P18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="b">
-        <v>1</v>
-      </c>
-      <c r="R18" t="s">
+      <c r="R21" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" t="b">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
         <v>72</v>
       </c>
-      <c r="S18" t="s">
+      <c r="U21" t="s">
         <v>58</v>
       </c>
-      <c r="T18">
+      <c r="V21">
         <v>12</v>
       </c>
-      <c r="U18">
+      <c r="W21">
         <v>0.04</v>
       </c>
-      <c r="V18">
+      <c r="X21">
         <v>5</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="s">
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="s">
         <v>99</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AB21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC21">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AD21">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AE21" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AF21">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI21">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AJ21">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U22" t="s">
+        <v>58</v>
+      </c>
+      <c r="V22">
+        <v>12</v>
+      </c>
+      <c r="W22">
+        <v>0.04</v>
+      </c>
+      <c r="X22">
+        <v>5</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB22" t="s">
         <v>22</v>
       </c>
-      <c r="AA18">
+      <c r="AC22">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AB18">
+      <c r="AD22">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AC18" s="7">
+      <c r="AE22" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD18">
+      <c r="AF22">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AG22" t="s">
         <v>44</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH22" t="s">
         <v>44</v>
       </c>
-      <c r="AG18">
+      <c r="AI22">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AH18">
+      <c r="AJ22">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" t="b">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19" t="s">
-        <v>4</v>
-      </c>
-      <c r="P19" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="b">
-        <v>1</v>
-      </c>
-      <c r="R19" t="s">
-        <v>72</v>
-      </c>
-      <c r="S19" t="s">
-        <v>58</v>
-      </c>
-      <c r="T19">
-        <v>12</v>
-      </c>
-      <c r="U19">
-        <v>0.04</v>
-      </c>
-      <c r="V19">
-        <v>5</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA19">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="AB19">
-        <v>7.9200000000000007E-2</v>
-      </c>
-      <c r="AC19" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AD19">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG19">
-        <v>0.86181585764546287</v>
-      </c>
-      <c r="AH19">
-        <v>0.90380725834975151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>116</v>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>132</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
@@ -2606,100 +2920,103 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
         <v>71</v>
       </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
       </c>
-      <c r="M23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="M23">
+        <v>15</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
         <v>4</v>
       </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="b">
-        <v>1</v>
-      </c>
-      <c r="R23" t="s">
+      <c r="R23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S23" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
         <v>72</v>
       </c>
-      <c r="S23" t="s">
+      <c r="U23" t="s">
         <v>58</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>12</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>0.04</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>5</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="s">
         <v>99</v>
       </c>
-      <c r="Z23" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA23">
+      <c r="AB23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC23">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AB23">
+      <c r="AD23">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AC23" s="7">
+      <c r="AE23" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD23">
+      <c r="AF23">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AG23" t="s">
         <v>44</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>44</v>
       </c>
-      <c r="AG23">
+      <c r="AI23">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AH23">
+      <c r="AJ23">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>116</v>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>126</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
@@ -2707,302 +3024,415 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
         <v>71</v>
       </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
       </c>
       <c r="L24" t="b">
         <v>1</v>
       </c>
-      <c r="M24" t="b">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="M24">
+        <v>30</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
         <v>4</v>
       </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="b">
-        <v>1</v>
-      </c>
-      <c r="R24" t="s">
+      <c r="R24" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s">
         <v>72</v>
       </c>
-      <c r="S24" t="s">
+      <c r="U24" t="s">
         <v>58</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>12</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <v>0.04</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>5</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="s">
         <v>99</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AB24" t="s">
         <v>22</v>
       </c>
-      <c r="AA24">
+      <c r="AC24">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AB24">
+      <c r="AD24">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AC24" s="7">
+      <c r="AE24" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD24">
+      <c r="AF24">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AG24" t="s">
         <v>44</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>44</v>
       </c>
-      <c r="AG24">
+      <c r="AI24">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AH24">
+      <c r="AJ24">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>116</v>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R25" t="b">
+        <v>1</v>
+      </c>
+      <c r="S25" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s">
+        <v>72</v>
+      </c>
+      <c r="U25" t="s">
+        <v>58</v>
+      </c>
+      <c r="V25">
+        <v>12</v>
+      </c>
+      <c r="W25">
+        <v>0.04</v>
+      </c>
+      <c r="X25">
+        <v>5</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB25" t="s">
         <v>23</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="AC25">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AD25">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AE25" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AF25">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI25">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AJ25">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
         <v>71</v>
       </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="b">
-        <v>1</v>
-      </c>
-      <c r="M25" t="b">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>15</v>
+      </c>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="s">
         <v>4</v>
       </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="b">
-        <v>1</v>
-      </c>
-      <c r="R25" t="s">
+      <c r="R26" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
         <v>72</v>
       </c>
-      <c r="S25" t="s">
+      <c r="U26" t="s">
         <v>58</v>
       </c>
-      <c r="T25">
+      <c r="V26">
         <v>12</v>
       </c>
-      <c r="U25">
+      <c r="W26">
         <v>0.04</v>
       </c>
-      <c r="V25">
+      <c r="X26">
         <v>5</v>
       </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="s">
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="s">
         <v>99</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AB26" t="s">
         <v>23</v>
       </c>
-      <c r="AA25">
+      <c r="AC26">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AB25">
+      <c r="AD26">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AC25" s="7">
+      <c r="AE26" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD25">
+      <c r="AF26">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AG26" t="s">
         <v>44</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH26" t="s">
         <v>44</v>
       </c>
-      <c r="AG25">
+      <c r="AI26">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AH25">
+      <c r="AJ26">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>117</v>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
         <v>71</v>
       </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
       </c>
       <c r="L27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" t="b">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>30</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
         <v>4</v>
       </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27" t="b">
-        <v>1</v>
-      </c>
-      <c r="R27" t="s">
+      <c r="R27" t="b">
+        <v>1</v>
+      </c>
+      <c r="S27" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s">
         <v>72</v>
       </c>
-      <c r="S27" t="s">
+      <c r="U27" t="s">
         <v>58</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>12</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>0.04</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>5</v>
       </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="s">
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="s">
         <v>99</v>
       </c>
-      <c r="Z27" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA27">
+      <c r="AB27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC27">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AD27">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AE27" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AF27">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="AB27">
-        <v>7.9200000000000007E-2</v>
-      </c>
-      <c r="AC27" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="AD27">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="AE27" t="s">
+      <c r="AG27" t="s">
         <v>44</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AH27" t="s">
         <v>44</v>
       </c>
-      <c r="AG27">
+      <c r="AI27">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AH27">
+      <c r="AJ27">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
@@ -3010,97 +3440,103 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
         <v>71</v>
       </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
       </c>
       <c r="L29" t="b">
-        <v>0</v>
-      </c>
-      <c r="M29" t="b">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29">
         <v>4</v>
       </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="b">
-        <v>1</v>
-      </c>
-      <c r="R29" t="s">
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" t="b">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s">
         <v>72</v>
       </c>
-      <c r="S29" t="s">
+      <c r="U29" t="s">
         <v>58</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>12</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <v>0.04</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>5</v>
       </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="s">
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA29" t="s">
         <v>99</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AB29" t="s">
         <v>21</v>
       </c>
-      <c r="AA29">
+      <c r="AC29">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AB29">
+      <c r="AD29">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AC29" s="7">
+      <c r="AE29" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD29">
+      <c r="AF29">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AG29" t="s">
         <v>44</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AH29" t="s">
         <v>44</v>
       </c>
-      <c r="AG29">
+      <c r="AI29">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AH29">
+      <c r="AJ29">
         <v>0.90380725834975151</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
         <v>21</v>
@@ -3108,100 +3544,427 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
         <v>71</v>
       </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>8</v>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>30</v>
       </c>
       <c r="L31" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" t="b">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31">
         <v>4</v>
       </c>
-      <c r="P31" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="b">
-        <v>1</v>
-      </c>
-      <c r="R31" t="s">
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>4</v>
+      </c>
+      <c r="R31" t="b">
+        <v>1</v>
+      </c>
+      <c r="S31" t="b">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s">
         <v>72</v>
       </c>
-      <c r="S31" t="s">
+      <c r="U31" t="s">
         <v>58</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>12</v>
       </c>
-      <c r="U31">
+      <c r="W31">
         <v>0.04</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>5</v>
       </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="s">
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="s">
         <v>45</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AB31" t="s">
         <v>21</v>
       </c>
-      <c r="AA31">
+      <c r="AC31">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AB31">
+      <c r="AD31">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="AC31" s="7">
+      <c r="AE31" s="7">
         <v>0.12</v>
       </c>
-      <c r="AD31">
+      <c r="AF31">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AG31" t="s">
         <v>44</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AH31" t="s">
         <v>44</v>
       </c>
-      <c r="AG31">
+      <c r="AI31">
         <v>0.86181585764546287</v>
       </c>
-      <c r="AH31">
+      <c r="AJ31">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" t="b">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s">
+        <v>72</v>
+      </c>
+      <c r="U33" t="s">
+        <v>58</v>
+      </c>
+      <c r="V33">
+        <v>12</v>
+      </c>
+      <c r="W33">
+        <v>0.04</v>
+      </c>
+      <c r="X33">
+        <v>5</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC33">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AD33">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AE33" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AF33">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI33">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AJ33">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>4</v>
+      </c>
+      <c r="R34" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34" t="b">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s">
+        <v>72</v>
+      </c>
+      <c r="U34" t="s">
+        <v>58</v>
+      </c>
+      <c r="V34">
+        <v>12</v>
+      </c>
+      <c r="W34">
+        <v>0.04</v>
+      </c>
+      <c r="X34">
+        <v>5</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC34">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AD34">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AE34" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AF34">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI34">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AJ34">
+        <v>0.90380725834975151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" t="b">
+        <v>1</v>
+      </c>
+      <c r="S35" t="b">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s">
+        <v>72</v>
+      </c>
+      <c r="U35" t="s">
+        <v>58</v>
+      </c>
+      <c r="V35">
+        <v>12</v>
+      </c>
+      <c r="W35">
+        <v>0.04</v>
+      </c>
+      <c r="X35">
+        <v>5</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC35">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AD35">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="AE35" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AF35">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI35">
+        <v>0.86181585764546287</v>
+      </c>
+      <c r="AJ35">
         <v>0.90380725834975151</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G17:I19 G27:I27 G23:I25 G29:I29 G5:I15 G31:I31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19:J27 H8:J9 H33:J35 H29:J29 H31:J31 I5:J17 H5:H18" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y27 Y23:Y25 Y17:Y19 Y5:Y15 Y29 Y31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA33:AA35 AA31 AA5:AA17 AA29 AA19:AA27" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"simple, internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3211,11 +3974,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3254,7 +4017,7 @@
         <v>2017</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -3281,11 +4044,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3449,16 +4212,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B4:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="7" width="15.42578125" customWidth="1"/>
+    <col min="2" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3480,15 +4244,15 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>52</v>
@@ -3518,11 +4282,11 @@
         <v>0.85721405432344866</v>
       </c>
       <c r="F7" s="17">
-        <v>41.51</v>
+        <v>41.59</v>
       </c>
       <c r="G7" s="18">
         <f>F7/C7</f>
-        <v>1.0343882382257661</v>
+        <v>1.0363817592823323</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3540,11 +4304,11 @@
         <v>0.75043177892918822</v>
       </c>
       <c r="F8" s="17">
-        <v>11.45</v>
+        <v>11.47</v>
       </c>
       <c r="G8" s="18">
         <f>F8/C8</f>
-        <v>0.98877374784110528</v>
+        <v>0.99050086355785838</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3563,11 +4327,11 @@
         <v>0.90122591943957953</v>
       </c>
       <c r="F9" s="17">
-        <v>30.06</v>
+        <v>30.12</v>
       </c>
       <c r="G9" s="18">
         <f>F9/C9</f>
-        <v>1.0528896672504375</v>
+        <v>1.0549912434325743</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3647,12 +4411,11 @@
         <v>1.0421193829644533</v>
       </c>
       <c r="F14" s="17">
-        <f>SUM(F9,F10,F11)</f>
-        <v>80.009999999999991</v>
+        <v>76.12</v>
       </c>
       <c r="G14" s="18">
         <f>F14/C14</f>
-        <v>1.073239436619718</v>
+        <v>1.0210596914822265</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3750,11 +4513,11 @@
         <v>0.74181119280937113</v>
       </c>
       <c r="F21" s="25">
-        <v>9.5500000000000002E-2</v>
+        <v>9.5699999999999993E-2</v>
       </c>
       <c r="G21" s="18">
         <f>F21/C21</f>
-        <v>0.92003855731551887</v>
+        <v>0.92196533963450411</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3772,11 +4535,11 @@
         <v>1.0747663551401867</v>
       </c>
       <c r="F22" s="11">
-        <v>1.19</v>
+        <v>1.135</v>
       </c>
       <c r="G22" s="18">
         <f>F22/C22</f>
-        <v>1.1121495327102802</v>
+        <v>1.0607476635514017</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3842,11 +4605,11 @@
         <v>0.99470412157494825</v>
       </c>
       <c r="F26" s="17">
-        <v>4.16</v>
+        <v>4.34</v>
       </c>
       <c r="G26" s="18">
         <f>F26/C26</f>
-        <v>0.95786322818328351</v>
+        <v>0.9993092332489063</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3972,11 +4735,436 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B2:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="17">
+        <v>40.130000000000003</v>
+      </c>
+      <c r="D3">
+        <v>34.42</v>
+      </c>
+      <c r="E3" s="31">
+        <v>36.97</v>
+      </c>
+      <c r="F3">
+        <v>38.47</v>
+      </c>
+      <c r="G3">
+        <v>41.48</v>
+      </c>
+      <c r="H3">
+        <v>41.59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="17">
+        <v>11.58</v>
+      </c>
+      <c r="D4">
+        <v>8.69</v>
+      </c>
+      <c r="E4" s="31">
+        <v>10.196400000000001</v>
+      </c>
+      <c r="F4">
+        <v>10.55</v>
+      </c>
+      <c r="G4">
+        <v>11.4</v>
+      </c>
+      <c r="H4">
+        <v>11.47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="17">
+        <f>C3-C4</f>
+        <v>28.550000000000004</v>
+      </c>
+      <c r="D5">
+        <v>25.73</v>
+      </c>
+      <c r="E5" s="31">
+        <v>26.77</v>
+      </c>
+      <c r="F5">
+        <v>27.93</v>
+      </c>
+      <c r="G5">
+        <v>30.07</v>
+      </c>
+      <c r="H5">
+        <v>30.12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="11">
+        <v>10.38</v>
+      </c>
+      <c r="D6">
+        <v>7.7</v>
+      </c>
+      <c r="E6" s="31">
+        <v>8.5060000000000002</v>
+      </c>
+      <c r="F6">
+        <v>8.66</v>
+      </c>
+      <c r="G6">
+        <v>9.44</v>
+      </c>
+      <c r="H6">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="24">
+        <v>111.58</v>
+      </c>
+      <c r="D7">
+        <v>117.96</v>
+      </c>
+      <c r="E7" s="31">
+        <v>124.18</v>
+      </c>
+      <c r="F7">
+        <v>125.5</v>
+      </c>
+      <c r="G7">
+        <v>124.8</v>
+      </c>
+      <c r="H7">
+        <v>124.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="23">
+        <f t="shared" ref="D9:H13" si="0">D3/$C3</f>
+        <v>0.85771243458759028</v>
+      </c>
+      <c r="E9" s="23">
+        <f t="shared" si="0"/>
+        <v>0.92125591826563658</v>
+      </c>
+      <c r="F9" s="23">
+        <f t="shared" si="0"/>
+        <v>0.95863443807625204</v>
+      </c>
+      <c r="G9" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0336406678295538</v>
+      </c>
+      <c r="H9" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0363817592823323</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="23">
+        <f t="shared" si="0"/>
+        <v>0.75043177892918822</v>
+      </c>
+      <c r="E10" s="23">
+        <f t="shared" si="0"/>
+        <v>0.88051813471502594</v>
+      </c>
+      <c r="F10" s="23">
+        <f t="shared" si="0"/>
+        <v>0.91105354058721943</v>
+      </c>
+      <c r="G10" s="23">
+        <f t="shared" si="0"/>
+        <v>0.98445595854922285</v>
+      </c>
+      <c r="H10" s="23">
+        <f t="shared" si="0"/>
+        <v>0.99050086355785838</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="23">
+        <f t="shared" si="0"/>
+        <v>0.90122591943957953</v>
+      </c>
+      <c r="E11" s="23">
+        <f t="shared" si="0"/>
+        <v>0.93765323992994731</v>
+      </c>
+      <c r="F11" s="23">
+        <f t="shared" si="0"/>
+        <v>0.97828371278458826</v>
+      </c>
+      <c r="G11" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0532399299474604</v>
+      </c>
+      <c r="H11" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0549912434325743</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.74181117533718688</v>
+      </c>
+      <c r="E12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.81946050096339107</v>
+      </c>
+      <c r="F12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.83429672447013481</v>
+      </c>
+      <c r="G12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.90944123314065495</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.9219653179190751</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="23">
+        <f t="shared" si="0"/>
+        <v>1.0571787058612654</v>
+      </c>
+      <c r="E13" s="23">
+        <f t="shared" si="0"/>
+        <v>1.1129234629861984</v>
+      </c>
+      <c r="F13" s="23">
+        <f t="shared" si="0"/>
+        <v>1.1247535400609427</v>
+      </c>
+      <c r="G13" s="23">
+        <f t="shared" si="0"/>
+        <v>1.1184800143394873</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" si="0"/>
+        <v>1.11310270657824</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="23">
+        <f>(1-D9)/D9</f>
+        <v>0.16589192330040681</v>
+      </c>
+      <c r="E15" s="23">
+        <f>(1-E9)/E9</f>
+        <v>8.5474709223695017E-2</v>
+      </c>
+      <c r="F15" s="23">
+        <f t="shared" ref="F15:H15" si="1">(1-F9)/F9</f>
+        <v>4.3150506888484687E-2</v>
+      </c>
+      <c r="G15" s="23">
+        <f t="shared" si="1"/>
+        <v>-3.2545805207328665E-2</v>
+      </c>
+      <c r="H15" s="23">
+        <f t="shared" si="1"/>
+        <v>-3.5104592450108121E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="23">
+        <f t="shared" ref="D16:E19" si="2">(1-D10)/D10</f>
+        <v>0.33256616800920602</v>
+      </c>
+      <c r="E16" s="23">
+        <f t="shared" si="2"/>
+        <v>0.13569495115923264</v>
+      </c>
+      <c r="F16" s="23">
+        <f t="shared" ref="F16:H16" si="3">(1-F10)/F10</f>
+        <v>9.7630331753554386E-2</v>
+      </c>
+      <c r="G16" s="23">
+        <f t="shared" si="3"/>
+        <v>1.5789473684210468E-2</v>
+      </c>
+      <c r="H16" s="23">
+        <f t="shared" si="3"/>
+        <v>9.5902353966870069E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="23">
+        <f t="shared" si="2"/>
+        <v>0.10959968907889643</v>
+      </c>
+      <c r="E17" s="23">
+        <f t="shared" si="2"/>
+        <v>6.6492342174075625E-2</v>
+      </c>
+      <c r="F17" s="23">
+        <f t="shared" ref="F17:H17" si="4">(1-F11)/F11</f>
+        <v>2.2198353025420888E-2</v>
+      </c>
+      <c r="G17" s="23">
+        <f t="shared" si="4"/>
+        <v>-5.0548719654140171E-2</v>
+      </c>
+      <c r="H17" s="23">
+        <f t="shared" si="4"/>
+        <v>-5.212483399734387E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="23">
+        <f t="shared" si="2"/>
+        <v>0.34805194805194811</v>
+      </c>
+      <c r="E18" s="23">
+        <f t="shared" si="2"/>
+        <v>0.22031507171408427</v>
+      </c>
+      <c r="F18" s="23">
+        <f t="shared" ref="F18:H18" si="5">(1-F12)/F12</f>
+        <v>0.19861431870669755</v>
+      </c>
+      <c r="G18" s="23">
+        <f t="shared" si="5"/>
+        <v>9.9576271186440871E-2</v>
+      </c>
+      <c r="H18" s="23">
+        <f t="shared" si="5"/>
+        <v>8.4639498432601934E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="23">
+        <f t="shared" si="2"/>
+        <v>-5.4086130891827677E-2</v>
+      </c>
+      <c r="E19" s="23">
+        <f t="shared" si="2"/>
+        <v>-0.10146561443066526</v>
+      </c>
+      <c r="F19" s="23">
+        <f t="shared" ref="F19:H19" si="6">(1-F13)/F13</f>
+        <v>-0.11091633466135452</v>
+      </c>
+      <c r="G19" s="23">
+        <f t="shared" si="6"/>
+        <v>-0.10592948717948712</v>
+      </c>
+      <c r="H19" s="23">
+        <f t="shared" si="6"/>
+        <v>-0.10161030595813214</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="20">
+        <f t="shared" ref="C22:D22" si="7">C4/C7</f>
+        <v>0.10378203979207744</v>
+      </c>
+      <c r="D22" s="20">
+        <f t="shared" si="7"/>
+        <v>7.3669040352661919E-2</v>
+      </c>
+      <c r="E22" s="20">
+        <f>E4/E7</f>
+        <v>8.2109840554034461E-2</v>
+      </c>
+      <c r="F22" s="20">
+        <f t="shared" ref="F22:H22" si="8">F4/F7</f>
+        <v>8.4063745019920325E-2</v>
+      </c>
+      <c r="G22" s="20">
+        <f t="shared" si="8"/>
+        <v>9.1346153846153855E-2</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="8"/>
+        <v>9.2351046698872785E-2</v>
+      </c>
+      <c r="I22" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4001,10 +5189,10 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
@@ -4456,245 +5644,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="17">
-        <v>40.130000000000003</v>
-      </c>
-      <c r="D3">
-        <v>34.42</v>
-      </c>
-      <c r="E3" s="32">
-        <v>36.97</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="17">
-        <v>11.58</v>
-      </c>
-      <c r="D4">
-        <v>8.69</v>
-      </c>
-      <c r="E4" s="32">
-        <v>10.196400000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="17">
-        <f>C3-C4</f>
-        <v>28.550000000000004</v>
-      </c>
-      <c r="D5">
-        <v>25.73</v>
-      </c>
-      <c r="E5" s="32">
-        <v>26.77</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="11">
-        <v>10.38</v>
-      </c>
-      <c r="D6">
-        <v>7.7</v>
-      </c>
-      <c r="E6" s="32">
-        <v>8.5060000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="24">
-        <v>111.58</v>
-      </c>
-      <c r="D7">
-        <v>117.96</v>
-      </c>
-      <c r="E7" s="32">
-        <v>124.18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="23">
-        <f t="shared" ref="D9:H13" si="0">D3/$C3</f>
-        <v>0.85771243458759028</v>
-      </c>
-      <c r="E9" s="23">
-        <f t="shared" si="0"/>
-        <v>0.92125591826563658</v>
-      </c>
-      <c r="F9" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="23">
-        <f t="shared" si="0"/>
-        <v>0.75043177892918822</v>
-      </c>
-      <c r="E10" s="23">
-        <f t="shared" si="0"/>
-        <v>0.88051813471502594</v>
-      </c>
-      <c r="F10" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="23">
-        <f t="shared" si="0"/>
-        <v>0.90122591943957953</v>
-      </c>
-      <c r="E11" s="23">
-        <f t="shared" si="0"/>
-        <v>0.93765323992994731</v>
-      </c>
-      <c r="F11" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="23">
-        <f t="shared" si="0"/>
-        <v>0.74181117533718688</v>
-      </c>
-      <c r="E12" s="23">
-        <f t="shared" si="0"/>
-        <v>0.81946050096339107</v>
-      </c>
-      <c r="F12" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="23">
-        <f t="shared" si="0"/>
-        <v>1.0571787058612654</v>
-      </c>
-      <c r="E13" s="23">
-        <f t="shared" si="0"/>
-        <v>1.1129234629861984</v>
-      </c>
-      <c r="F13" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5163,7 +6114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5175,7 +6126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1303,7 +1303,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14:H17"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,7 +2092,7 @@
         <v>71</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -2196,7 +2196,7 @@
         <v>71</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -2300,7 +2300,7 @@
         <v>71</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
